--- a/otolith_analyses/data/PCod_Korea_Microchem_filtered.xlsx
+++ b/otolith_analyses/data/PCod_Korea_Microchem_filtered.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Fisher\Documents\SEFS_502\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pacific cod\DataAnalysis\PCod-Korea-repo\otolith_analyses\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>PO010715_02</t>
   </si>
@@ -632,7 +632,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -908,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q169"/>
+  <dimension ref="A1:Q168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="Q102" sqref="Q102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,7 +2643,8 @@
         <v>17.1477434</v>
       </c>
       <c r="G33">
-        <v>-9.5855579999999992E-3</v>
+        <f>-0.009585558*-1</f>
+        <v>9.5855579999999992E-3</v>
       </c>
       <c r="H33">
         <v>4579.3025090000001</v>
@@ -2712,7 +2721,8 @@
         <v>0.77919404199999998</v>
       </c>
       <c r="O34">
-        <v>-6.4186249999999999E-3</v>
+        <f>-0.006418625*-1</f>
+        <v>6.4186249999999999E-3</v>
       </c>
       <c r="P34">
         <v>5488.1832104999994</v>
@@ -2741,7 +2751,8 @@
         <v>44.739445009999997</v>
       </c>
       <c r="G35">
-        <v>-1.6618121999999999E-2</v>
+        <f>-0.016618122*-1</f>
+        <v>1.6618121999999999E-2</v>
       </c>
       <c r="H35">
         <v>3702.6773615000002</v>
@@ -2794,7 +2805,8 @@
         <v>21.858007839999999</v>
       </c>
       <c r="G36">
-        <v>-7.4811080000000002E-3</v>
+        <f>-0.007481108*-1</f>
+        <v>7.4811080000000002E-3</v>
       </c>
       <c r="H36">
         <v>5130.60509</v>
@@ -2818,7 +2830,8 @@
         <v>6.1211661929999996</v>
       </c>
       <c r="O36">
-        <v>-7.244622E-3</v>
+        <f>-0.007244622*-1</f>
+        <v>7.244622E-3</v>
       </c>
       <c r="P36">
         <v>9043.0368500000004</v>
@@ -2900,7 +2913,8 @@
         <v>17.163924250000001</v>
       </c>
       <c r="G38">
-        <v>-4.8633184999999999E-3</v>
+        <f>-0.0048633185*-1</f>
+        <v>4.8633184999999999E-3</v>
       </c>
       <c r="H38">
         <v>4660.1808620000002</v>
@@ -2924,7 +2938,8 @@
         <v>1.7350998595</v>
       </c>
       <c r="O38">
-        <v>-4.8182299999999997E-3</v>
+        <f>-0.00481823*-1</f>
+        <v>4.8182299999999997E-3</v>
       </c>
       <c r="P38">
         <v>4508.8363129999998</v>
@@ -2953,7 +2968,8 @@
         <v>17.125253624999999</v>
       </c>
       <c r="G39">
-        <v>-1.4528876E-2</v>
+        <f>-0.014528876*-1</f>
+        <v>1.4528876E-2</v>
       </c>
       <c r="H39">
         <v>4363.3464650000005</v>
@@ -2977,7 +2993,8 @@
         <v>2.0466194900000003</v>
       </c>
       <c r="O39">
-        <v>-1.3976753499999999E-2</v>
+        <f>-0.0139767535*-1</f>
+        <v>1.3976753499999999E-2</v>
       </c>
       <c r="P39">
         <v>5910.8642915</v>
@@ -3006,7 +3023,8 @@
         <v>18.62689623</v>
       </c>
       <c r="G40">
-        <v>-2.9106315000000001E-3</v>
+        <f>-0.0029106315*-1</f>
+        <v>2.9106315000000001E-3</v>
       </c>
       <c r="H40">
         <v>4428.0749489999998</v>
@@ -3030,7 +3048,8 @@
         <v>1.4649781799999999</v>
       </c>
       <c r="O40">
-        <v>-3.629059E-3</v>
+        <f>-0.003629059*-1</f>
+        <v>3.629059E-3</v>
       </c>
       <c r="P40">
         <v>7761.0539790000003</v>
@@ -3059,7 +3078,8 @@
         <v>29.226818869999999</v>
       </c>
       <c r="G41">
-        <v>-4.6078159999999998E-3</v>
+        <f>-0.004607816*-1</f>
+        <v>4.6078159999999998E-3</v>
       </c>
       <c r="H41">
         <v>4514.5099069999997</v>
@@ -3083,7 +3103,8 @@
         <v>2.0091095330000002</v>
       </c>
       <c r="O41">
-        <v>-4.3955410000000002E-3</v>
+        <f>-0.004395541*-1</f>
+        <v>4.3955410000000002E-3</v>
       </c>
       <c r="P41">
         <v>6343.3151809999999</v>
@@ -3112,7 +3133,8 @@
         <v>25.969980110000002</v>
       </c>
       <c r="G42">
-        <v>-7.1515880000000004E-3</v>
+        <f>-0.007151588*-1</f>
+        <v>7.1515880000000004E-3</v>
       </c>
       <c r="H42">
         <v>4910.4025549999997</v>
@@ -3136,7 +3158,8 @@
         <v>2.0298155900000001</v>
       </c>
       <c r="O42">
-        <v>-6.8378010000000001E-3</v>
+        <f>-0.006837801*-1</f>
+        <v>6.8378010000000001E-3</v>
       </c>
       <c r="P42">
         <v>6771.7412649999997</v>
@@ -3165,7 +3188,8 @@
         <v>69.641565619999994</v>
       </c>
       <c r="G43">
-        <v>-2.2150302E-2</v>
+        <f>-0.022150302*-1</f>
+        <v>2.2150302E-2</v>
       </c>
       <c r="H43">
         <v>4633.7503070000002</v>
@@ -3233,7 +3257,8 @@
         <v>5.1562891730000002</v>
       </c>
       <c r="L44">
-        <v>-2.3528860000000002E-3</v>
+        <f>-0.002352886*-1</f>
+        <v>2.3528860000000002E-3</v>
       </c>
       <c r="M44">
         <v>70.841081040000006</v>
@@ -3324,7 +3349,8 @@
         <v>48.253312989999998</v>
       </c>
       <c r="G46">
-        <v>-3.693998E-3</v>
+        <f>-0.003693998*-1</f>
+        <v>3.693998E-3</v>
       </c>
       <c r="H46">
         <v>5440.6814089999998</v>
@@ -3348,7 +3374,8 @@
         <v>1.1311923099999999</v>
       </c>
       <c r="O46">
-        <v>-4.8096909999999996E-3</v>
+        <f>-0.004809691*-1</f>
+        <v>4.8096909999999996E-3</v>
       </c>
       <c r="P46">
         <v>9027.759481000001</v>
@@ -4269,7 +4296,8 @@
         <v>6.3759559760000002</v>
       </c>
       <c r="D64">
-        <v>-0.53224199449999998</v>
+        <f>-0.5322419945*-1</f>
+        <v>0.53224199449999998</v>
       </c>
       <c r="E64">
         <v>185.5264181</v>
@@ -4293,7 +4321,8 @@
         <v>6.3457773230000001</v>
       </c>
       <c r="L64">
-        <v>-3.3693239999999999E-2</v>
+        <f>-0.03369324*-1</f>
+        <v>3.3693239999999999E-2</v>
       </c>
       <c r="M64">
         <v>132.90399260000001</v>
@@ -4649,7 +4678,8 @@
         <v>33.260909669999997</v>
       </c>
       <c r="G71">
-        <v>-6.6868980000000001E-3</v>
+        <f>-0.006686898*-1</f>
+        <v>6.6868980000000001E-3</v>
       </c>
       <c r="H71">
         <v>5397.8079820000003</v>
@@ -4808,7 +4838,8 @@
         <v>33.255177330000002</v>
       </c>
       <c r="G74">
-        <v>-1.0796009000000001E-2</v>
+        <f>-0.010796009*-1</f>
+        <v>1.0796009000000001E-2</v>
       </c>
       <c r="H74">
         <v>4543.1360610000002</v>
@@ -5800,4083 +5831,4041 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>26.069874089999999</v>
+        <v>13.103210430000001</v>
       </c>
       <c r="C93">
-        <v>4.8366806520000001</v>
+        <v>11.718782170000001</v>
       </c>
       <c r="D93">
-        <v>0.77578196600000005</v>
+        <v>0.58087817200000003</v>
       </c>
       <c r="E93">
-        <v>196.21381389999999</v>
+        <v>128.60055890000001</v>
       </c>
       <c r="F93">
-        <v>25.4958472</v>
+        <v>24.523021719999999</v>
       </c>
       <c r="G93">
-        <v>6.7623512039999998</v>
+        <v>4.5803183719999998</v>
       </c>
       <c r="H93">
-        <v>3885.440263</v>
+        <v>5048.3205559999997</v>
       </c>
       <c r="I93">
-        <v>5.0577041889999999</v>
+        <v>2.8971915629999998</v>
       </c>
       <c r="J93">
-        <v>19.392395530000002</v>
+        <v>10.85981243</v>
       </c>
       <c r="K93">
-        <v>4.7528103369999997</v>
+        <v>4.9631088910000001</v>
       </c>
       <c r="L93">
-        <v>0.58499856900000002</v>
+        <v>0.59786050899999998</v>
       </c>
       <c r="M93">
-        <v>80.510035099999996</v>
+        <v>80.113033729999998</v>
       </c>
       <c r="N93">
-        <v>1.808017024</v>
+        <v>1.51927904</v>
       </c>
       <c r="O93">
-        <v>1.266886108</v>
+        <v>2.791399631</v>
       </c>
       <c r="P93">
-        <v>6457.1302539999997</v>
+        <v>7135.9539960000002</v>
       </c>
       <c r="Q93">
-        <v>2.16568563</v>
+        <v>2.8120265240000002</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>13.103210430000001</v>
+        <v>15.80540601</v>
       </c>
       <c r="C94">
-        <v>11.718782170000001</v>
+        <v>13.16844809</v>
       </c>
       <c r="D94">
-        <v>0.58087817200000003</v>
+        <v>0.55225008200000003</v>
       </c>
       <c r="E94">
-        <v>128.60055890000001</v>
+        <v>142.7452538</v>
       </c>
       <c r="F94">
-        <v>24.523021719999999</v>
+        <v>25.195116200000001</v>
       </c>
       <c r="G94">
-        <v>4.5803183719999998</v>
+        <v>5.3953462339999998</v>
       </c>
       <c r="H94">
-        <v>5048.3205559999997</v>
+        <v>4759.5986050000001</v>
       </c>
       <c r="I94">
-        <v>2.8971915629999998</v>
+        <v>3.345275988</v>
       </c>
       <c r="J94">
-        <v>10.85981243</v>
+        <v>14.062147169999999</v>
       </c>
       <c r="K94">
-        <v>4.9631088910000001</v>
+        <v>4.9679045159999999</v>
       </c>
       <c r="L94">
-        <v>0.59786050899999998</v>
+        <v>0.87335754399999999</v>
       </c>
       <c r="M94">
-        <v>80.113033729999998</v>
+        <v>84.857404270000004</v>
       </c>
       <c r="N94">
-        <v>1.51927904</v>
+        <v>2.3934477830000001</v>
       </c>
       <c r="O94">
-        <v>2.791399631</v>
+        <v>5.8167342609999997</v>
       </c>
       <c r="P94">
-        <v>7135.9539960000002</v>
+        <v>5239.4922829999996</v>
       </c>
       <c r="Q94">
-        <v>2.8120265240000002</v>
+        <v>4.1459094829999996</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>15.80540601</v>
+        <v>17.364423179999999</v>
       </c>
       <c r="C95">
-        <v>13.16844809</v>
+        <v>18.876581049999999</v>
       </c>
       <c r="D95">
-        <v>0.55225008200000003</v>
+        <v>0.65575693300000004</v>
       </c>
       <c r="E95">
-        <v>142.7452538</v>
+        <v>130.35764040000001</v>
       </c>
       <c r="F95">
-        <v>25.195116200000001</v>
+        <v>18.90173592</v>
       </c>
       <c r="G95">
-        <v>5.3953462339999998</v>
+        <v>6.2626080020000003</v>
       </c>
       <c r="H95">
-        <v>4759.5986050000001</v>
+        <v>5239.929658</v>
       </c>
       <c r="I95">
-        <v>3.345275988</v>
+        <v>2.509597238</v>
       </c>
       <c r="J95">
-        <v>14.062147169999999</v>
+        <v>24.935679539999999</v>
       </c>
       <c r="K95">
-        <v>4.9679045159999999</v>
+        <v>8.4597813049999999</v>
       </c>
       <c r="L95">
-        <v>0.87335754399999999</v>
+        <v>0.33076065500000001</v>
       </c>
       <c r="M95">
-        <v>84.857404270000004</v>
+        <v>133.25544400000001</v>
       </c>
       <c r="N95">
-        <v>2.3934477830000001</v>
+        <v>5.8172584250000003</v>
       </c>
       <c r="O95">
-        <v>5.8167342609999997</v>
+        <v>2.411106996</v>
       </c>
       <c r="P95">
-        <v>5239.4922829999996</v>
+        <v>6066.9122950000001</v>
       </c>
       <c r="Q95">
-        <v>4.1459094829999996</v>
+        <v>3.4539061000000002</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>17.364423179999999</v>
+        <v>6.8682025040000001</v>
       </c>
       <c r="C96">
-        <v>18.876581049999999</v>
+        <v>10.47525581</v>
       </c>
       <c r="D96">
-        <v>0.65575693300000004</v>
+        <v>0.59423109900000004</v>
       </c>
       <c r="E96">
-        <v>130.35764040000001</v>
+        <v>118.6876358</v>
       </c>
       <c r="F96">
-        <v>18.90173592</v>
+        <v>24.73559727</v>
       </c>
       <c r="G96">
-        <v>6.2626080020000003</v>
+        <v>2.3436692039999998</v>
       </c>
       <c r="H96">
-        <v>5239.929658</v>
+        <v>5550.0705829999997</v>
       </c>
       <c r="I96">
-        <v>2.509597238</v>
+        <v>3.0005752019999998</v>
       </c>
       <c r="J96">
-        <v>24.935679539999999</v>
+        <v>8.8028858759999995</v>
       </c>
       <c r="K96">
-        <v>8.4597813049999999</v>
+        <v>7.7835211549999999</v>
       </c>
       <c r="L96">
-        <v>0.33076065500000001</v>
+        <v>0.41537972299999998</v>
       </c>
       <c r="M96">
-        <v>133.25544400000001</v>
+        <v>80.637929279999994</v>
       </c>
       <c r="N96">
-        <v>5.8172584250000003</v>
+        <v>5.3517098880000002</v>
       </c>
       <c r="O96">
-        <v>2.411106996</v>
+        <v>3.5367837459999998</v>
       </c>
       <c r="P96">
-        <v>6066.9122950000001</v>
+        <v>5244.7493590000004</v>
       </c>
       <c r="Q96">
-        <v>3.4539061000000002</v>
+        <v>2.3099319020000002</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>6.8682025040000001</v>
+        <v>10.98539706</v>
       </c>
       <c r="C97">
-        <v>10.47525581</v>
+        <v>13.34246615</v>
       </c>
       <c r="D97">
-        <v>0.59423109900000004</v>
+        <v>0.50998480300000004</v>
       </c>
       <c r="E97">
-        <v>118.6876358</v>
+        <v>82.197616249999996</v>
       </c>
       <c r="F97">
-        <v>24.73559727</v>
+        <v>10.77505876</v>
       </c>
       <c r="G97">
-        <v>2.3436692039999998</v>
+        <v>8.5888691020000003</v>
       </c>
       <c r="H97">
-        <v>5550.0705829999997</v>
+        <v>5384.4333630000001</v>
       </c>
       <c r="I97">
-        <v>3.0005752019999998</v>
+        <v>4.4909976540000001</v>
       </c>
       <c r="J97">
-        <v>8.8028858759999995</v>
+        <v>13.60801084</v>
       </c>
       <c r="K97">
-        <v>7.7835211549999999</v>
+        <v>5.7133861460000004</v>
       </c>
       <c r="L97">
-        <v>0.41537972299999998</v>
+        <v>0.30008304699999999</v>
       </c>
       <c r="M97">
-        <v>80.637929279999994</v>
+        <v>54.170818990000001</v>
       </c>
       <c r="N97">
-        <v>5.3517098880000002</v>
+        <v>1.7865437040000001</v>
       </c>
       <c r="O97">
-        <v>3.5367837459999998</v>
+        <v>1.2115211880000001</v>
       </c>
       <c r="P97">
-        <v>5244.7493590000004</v>
+        <v>5096.0183049999996</v>
       </c>
       <c r="Q97">
-        <v>2.3099319020000002</v>
+        <v>3.3518975449999999</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>10.98539706</v>
+        <v>11.309533569999999</v>
       </c>
       <c r="C98">
-        <v>13.34246615</v>
+        <v>14.564374040000001</v>
       </c>
       <c r="D98">
-        <v>0.50998480300000004</v>
+        <v>0.41071793899999998</v>
       </c>
       <c r="E98">
-        <v>82.197616249999996</v>
+        <v>91.369507810000002</v>
       </c>
       <c r="F98">
-        <v>10.77505876</v>
+        <v>13.693067429999999</v>
       </c>
       <c r="G98">
-        <v>8.5888691020000003</v>
+        <v>4.8830689190000003</v>
       </c>
       <c r="H98">
-        <v>5384.4333630000001</v>
+        <v>4648.8231649999998</v>
       </c>
       <c r="I98">
-        <v>4.4909976540000001</v>
+        <v>4.4772658959999996</v>
       </c>
       <c r="J98">
-        <v>13.60801084</v>
+        <v>9.8413201580000003</v>
       </c>
       <c r="K98">
-        <v>5.7133861460000004</v>
+        <v>5.6642744709999997</v>
       </c>
       <c r="L98">
-        <v>0.30008304699999999</v>
+        <v>0.345297986</v>
       </c>
       <c r="M98">
-        <v>54.170818990000001</v>
+        <v>90.630327039999997</v>
       </c>
       <c r="N98">
-        <v>1.7865437040000001</v>
+        <v>5.4490647770000002</v>
       </c>
       <c r="O98">
-        <v>1.2115211880000001</v>
+        <v>2.815859578</v>
       </c>
       <c r="P98">
-        <v>5096.0183049999996</v>
+        <v>5506.4332469999999</v>
       </c>
       <c r="Q98">
-        <v>3.3518975449999999</v>
+        <v>2.729472763</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>11.309533569999999</v>
+        <v>27.445871820000001</v>
       </c>
       <c r="C99">
-        <v>14.564374040000001</v>
+        <v>23.2235154</v>
       </c>
       <c r="D99">
-        <v>0.41071793899999998</v>
+        <v>0.97506671199999995</v>
       </c>
       <c r="E99">
-        <v>91.369507810000002</v>
+        <v>139.36946699999999</v>
       </c>
       <c r="F99">
-        <v>13.693067429999999</v>
+        <v>17.985063579999998</v>
       </c>
       <c r="G99">
-        <v>4.8830689190000003</v>
+        <v>0.17316428</v>
       </c>
       <c r="H99">
-        <v>4648.8231649999998</v>
+        <v>4415.749667</v>
       </c>
       <c r="I99">
-        <v>4.4772658959999996</v>
+        <v>3.1990903049999999</v>
       </c>
       <c r="J99">
-        <v>9.8413201580000003</v>
+        <v>17.286975389999998</v>
       </c>
       <c r="K99">
-        <v>5.6642744709999997</v>
+        <v>3.4636293560000002</v>
       </c>
       <c r="L99">
-        <v>0.345297986</v>
+        <v>0.73923971099999997</v>
       </c>
       <c r="M99">
-        <v>90.630327039999997</v>
+        <v>76.725079350000001</v>
       </c>
       <c r="N99">
-        <v>5.4490647770000002</v>
+        <v>5.1481829100000001</v>
       </c>
       <c r="O99">
-        <v>2.815859578</v>
+        <v>0.21489117399999999</v>
       </c>
       <c r="P99">
-        <v>5506.4332469999999</v>
+        <v>4734.4221079999998</v>
       </c>
       <c r="Q99">
-        <v>2.729472763</v>
+        <v>2.2653536509999999</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>27.445871820000001</v>
+        <v>13.77210597</v>
       </c>
       <c r="C100">
-        <v>23.2235154</v>
+        <v>11.08248373</v>
       </c>
       <c r="D100">
-        <v>0.97506671199999995</v>
+        <v>0.570577479</v>
       </c>
       <c r="E100">
-        <v>139.36946699999999</v>
+        <v>112.93971740000001</v>
       </c>
       <c r="F100">
-        <v>17.985063579999998</v>
+        <v>13.63426941</v>
       </c>
       <c r="G100">
-        <v>0.17316428</v>
+        <v>8.2574934000000003E-2</v>
       </c>
       <c r="H100">
-        <v>4415.749667</v>
+        <v>4891.6045379999996</v>
       </c>
       <c r="I100">
-        <v>3.1990903049999999</v>
+        <v>1.3999457449999999</v>
       </c>
       <c r="J100">
-        <v>17.286975389999998</v>
+        <v>14.05618789</v>
       </c>
       <c r="K100">
-        <v>3.4636293560000002</v>
+        <v>9.3139660850000006</v>
       </c>
       <c r="L100">
-        <v>0.73923971099999997</v>
+        <v>0.55713516399999996</v>
       </c>
       <c r="M100">
-        <v>76.725079350000001</v>
+        <v>122.9936629</v>
       </c>
       <c r="N100">
-        <v>5.1481829100000001</v>
+        <v>9.9620242730000008</v>
       </c>
       <c r="O100">
-        <v>0.21489117399999999</v>
+        <v>0.136637864</v>
       </c>
       <c r="P100">
-        <v>4734.4221079999998</v>
+        <v>6492.9946749999999</v>
       </c>
       <c r="Q100">
-        <v>2.2653536509999999</v>
+        <v>1.521303737</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>13.77210597</v>
+        <v>23.065455719999999</v>
       </c>
       <c r="C101">
-        <v>11.08248373</v>
+        <v>6.3828707170000003</v>
       </c>
       <c r="D101">
-        <v>0.570577479</v>
+        <v>0.54297355999999997</v>
       </c>
       <c r="E101">
-        <v>112.93971740000001</v>
+        <v>100.02226400000001</v>
       </c>
       <c r="F101">
-        <v>13.63426941</v>
+        <v>24.832084399999999</v>
       </c>
       <c r="G101">
-        <v>8.2574934000000003E-2</v>
+        <v>4.5381278999999997E-2</v>
       </c>
       <c r="H101">
-        <v>4891.6045379999996</v>
+        <v>4378.8907449999997</v>
       </c>
       <c r="I101">
-        <v>1.3999457449999999</v>
+        <v>1.541721189</v>
       </c>
       <c r="J101">
-        <v>14.05618789</v>
+        <v>24.077664769999998</v>
       </c>
       <c r="K101">
-        <v>9.3139660850000006</v>
+        <v>4.5411073420000001</v>
       </c>
       <c r="L101">
-        <v>0.55713516399999996</v>
+        <v>0.66417281299999997</v>
       </c>
       <c r="M101">
-        <v>122.9936629</v>
+        <v>76.238953390000006</v>
       </c>
       <c r="N101">
-        <v>9.9620242730000008</v>
+        <v>1.2285689289999999</v>
       </c>
       <c r="O101">
-        <v>0.136637864</v>
+        <v>0.32986363400000002</v>
       </c>
       <c r="P101">
-        <v>6492.9946749999999</v>
+        <v>4640.8860189999996</v>
       </c>
       <c r="Q101">
-        <v>1.521303737</v>
+        <v>2.3070755639999998</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102">
-        <v>23.065455719999999</v>
+        <v>17.0828217</v>
       </c>
       <c r="C102">
-        <v>6.3828707170000003</v>
+        <v>28.006662219999999</v>
       </c>
       <c r="D102">
-        <v>0.54297355999999997</v>
+        <v>0.64070631300000003</v>
       </c>
       <c r="E102">
-        <v>100.02226400000001</v>
+        <v>127.3915293</v>
       </c>
       <c r="F102">
-        <v>24.832084399999999</v>
+        <v>32.16794685</v>
       </c>
       <c r="G102">
-        <v>4.5381278999999997E-2</v>
+        <v>0.27292064100000002</v>
       </c>
       <c r="H102">
-        <v>4378.8907449999997</v>
+        <v>5438.3151749999997</v>
       </c>
       <c r="I102">
-        <v>1.541721189</v>
+        <v>3.7784323720000002</v>
       </c>
       <c r="J102">
-        <v>24.077664769999998</v>
+        <v>24.016850829999999</v>
       </c>
       <c r="K102">
-        <v>4.5411073420000001</v>
+        <v>5.4727960839999996</v>
       </c>
       <c r="L102">
-        <v>0.66417281299999997</v>
+        <v>0.221660205</v>
       </c>
       <c r="M102">
-        <v>76.238953390000006</v>
+        <v>54.582005670000001</v>
       </c>
       <c r="N102">
-        <v>1.2285689289999999</v>
+        <v>0.85440130199999997</v>
       </c>
       <c r="O102">
-        <v>0.32986363400000002</v>
+        <v>0.27301419599999999</v>
       </c>
       <c r="P102">
-        <v>4640.8860189999996</v>
+        <v>6390.490487</v>
       </c>
       <c r="Q102">
-        <v>2.3070755639999998</v>
+        <v>1.6446363230000001</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103">
-        <v>17.0828217</v>
+        <v>7.7033921159999998</v>
       </c>
       <c r="C103">
-        <v>28.006662219999999</v>
+        <v>5.1717934220000004</v>
       </c>
       <c r="D103">
-        <v>0.64070631300000003</v>
+        <v>0.53470247000000004</v>
       </c>
       <c r="E103">
-        <v>127.3915293</v>
+        <v>104.00759050000001</v>
       </c>
       <c r="F103">
-        <v>32.16794685</v>
+        <v>27.988776819999998</v>
       </c>
       <c r="G103">
-        <v>0.27292064100000002</v>
+        <v>4.3640437999999997E-2</v>
       </c>
       <c r="H103">
-        <v>5438.3151749999997</v>
+        <v>4730.2644979999995</v>
       </c>
       <c r="I103">
-        <v>3.7784323720000002</v>
+        <v>2.111849388</v>
       </c>
       <c r="J103">
-        <v>24.016850829999999</v>
+        <v>8.0216136230000004</v>
       </c>
       <c r="K103">
-        <v>5.4727960839999996</v>
+        <v>4.1472062970000003</v>
       </c>
       <c r="L103">
-        <v>0.221660205</v>
+        <v>0.361610714</v>
       </c>
       <c r="M103">
-        <v>54.582005670000001</v>
+        <v>75.882976959999993</v>
       </c>
       <c r="N103">
-        <v>0.85440130199999997</v>
+        <v>3.3643892630000001</v>
       </c>
       <c r="O103">
-        <v>0.27301419599999999</v>
+        <v>0.12688423500000001</v>
       </c>
       <c r="P103">
-        <v>6390.490487</v>
+        <v>6301.4781929999999</v>
       </c>
       <c r="Q103">
-        <v>1.6446363230000001</v>
+        <v>1.5430142790000001</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104">
-        <v>7.7033921159999998</v>
+        <v>18.55514002</v>
       </c>
       <c r="C104">
-        <v>5.1717934220000004</v>
+        <v>4.878731846</v>
       </c>
       <c r="D104">
-        <v>0.53470247000000004</v>
+        <v>0.434439927</v>
       </c>
       <c r="E104">
-        <v>104.00759050000001</v>
+        <v>121.5085765</v>
       </c>
       <c r="F104">
-        <v>27.988776819999998</v>
+        <v>13.92911784</v>
       </c>
       <c r="G104">
-        <v>4.3640437999999997E-2</v>
+        <v>3.1225816999999999E-2</v>
       </c>
       <c r="H104">
-        <v>4730.2644979999995</v>
+        <v>4397.0905499999999</v>
       </c>
       <c r="I104">
-        <v>2.111849388</v>
+        <v>1.1752426579999999</v>
       </c>
       <c r="J104">
-        <v>8.0216136230000004</v>
+        <v>13.55881113</v>
       </c>
       <c r="K104">
-        <v>4.1472062970000003</v>
+        <v>9.1017977810000001</v>
       </c>
       <c r="L104">
-        <v>0.361610714</v>
+        <v>0.49689936299999998</v>
       </c>
       <c r="M104">
-        <v>75.882976959999993</v>
+        <v>93.465560109999998</v>
       </c>
       <c r="N104">
-        <v>3.3643892630000001</v>
+        <v>6.837258834</v>
       </c>
       <c r="O104">
-        <v>0.12688423500000001</v>
+        <v>0.14671521900000001</v>
       </c>
       <c r="P104">
-        <v>6301.4781929999999</v>
+        <v>8374.1386079999993</v>
       </c>
       <c r="Q104">
-        <v>1.5430142790000001</v>
+        <v>1.2238660370000001</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105">
-        <v>18.55514002</v>
+        <v>12.293614229999999</v>
       </c>
       <c r="C105">
-        <v>4.878731846</v>
+        <v>6.1893493030000002</v>
       </c>
       <c r="D105">
-        <v>0.434439927</v>
+        <v>0.62205312599999996</v>
       </c>
       <c r="E105">
-        <v>121.5085765</v>
+        <v>119.2972166</v>
       </c>
       <c r="F105">
-        <v>13.92911784</v>
+        <v>27.723385180000001</v>
       </c>
       <c r="G105">
-        <v>3.1225816999999999E-2</v>
+        <v>0.177231518</v>
       </c>
       <c r="H105">
-        <v>4397.0905499999999</v>
+        <v>4876.5089379999999</v>
       </c>
       <c r="I105">
-        <v>1.1752426579999999</v>
+        <v>2.6467006400000002</v>
       </c>
       <c r="J105">
-        <v>13.55881113</v>
+        <v>14.06255488</v>
       </c>
       <c r="K105">
-        <v>9.1017977810000001</v>
+        <v>12.303353810000001</v>
       </c>
       <c r="L105">
-        <v>0.49689936299999998</v>
+        <v>0.85220086799999994</v>
       </c>
       <c r="M105">
-        <v>93.465560109999998</v>
+        <v>138.7151978</v>
       </c>
       <c r="N105">
-        <v>6.837258834</v>
+        <v>18.462024289999999</v>
       </c>
       <c r="O105">
-        <v>0.14671521900000001</v>
+        <v>0.104564693</v>
       </c>
       <c r="P105">
-        <v>8374.1386079999993</v>
+        <v>7638.1030049999999</v>
       </c>
       <c r="Q105">
-        <v>1.2238660370000001</v>
+        <v>10.65236399</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106">
-        <v>12.293614229999999</v>
+        <v>10.81951881</v>
       </c>
       <c r="C106">
-        <v>6.1893493030000002</v>
+        <v>14.361996939999999</v>
       </c>
       <c r="D106">
-        <v>0.62205312599999996</v>
+        <v>0.47876827</v>
       </c>
       <c r="E106">
-        <v>119.2972166</v>
+        <v>100.3223993</v>
       </c>
       <c r="F106">
-        <v>27.723385180000001</v>
+        <v>23.196533200000001</v>
       </c>
       <c r="G106">
-        <v>0.177231518</v>
+        <v>0.2018393</v>
       </c>
       <c r="H106">
-        <v>4876.5089379999999</v>
+        <v>4866.0043020000003</v>
       </c>
       <c r="I106">
-        <v>2.6467006400000002</v>
+        <v>4.0675044969999998</v>
       </c>
       <c r="J106">
-        <v>14.06255488</v>
+        <v>10.324452539999999</v>
       </c>
       <c r="K106">
-        <v>12.303353810000001</v>
+        <v>4.8266758840000001</v>
       </c>
       <c r="L106">
-        <v>0.85220086799999994</v>
+        <v>0.43006928799999999</v>
       </c>
       <c r="M106">
-        <v>138.7151978</v>
+        <v>71.964441449999995</v>
       </c>
       <c r="N106">
-        <v>18.462024289999999</v>
+        <v>2.5893821520000002</v>
       </c>
       <c r="O106">
-        <v>0.104564693</v>
+        <v>0.15172870199999999</v>
       </c>
       <c r="P106">
-        <v>7638.1030049999999</v>
+        <v>6639.5457120000001</v>
       </c>
       <c r="Q106">
-        <v>10.65236399</v>
+        <v>1.320611819</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107">
-        <v>10.81951881</v>
+        <v>10.251794820000001</v>
       </c>
       <c r="C107">
-        <v>14.361996939999999</v>
+        <v>31.723827629999999</v>
       </c>
       <c r="D107">
-        <v>0.47876827</v>
+        <v>0.667085174</v>
       </c>
       <c r="E107">
-        <v>100.3223993</v>
+        <v>106.1814727</v>
       </c>
       <c r="F107">
-        <v>23.196533200000001</v>
+        <v>7.6642043720000004</v>
       </c>
       <c r="G107">
-        <v>0.2018393</v>
+        <v>2.4864119999999999E-3</v>
       </c>
       <c r="H107">
-        <v>4866.0043020000003</v>
+        <v>5095.204068</v>
       </c>
       <c r="I107">
-        <v>4.0675044969999998</v>
+        <v>4.3674088290000004</v>
       </c>
       <c r="J107">
-        <v>10.324452539999999</v>
+        <v>10.37958472</v>
       </c>
       <c r="K107">
-        <v>4.8266758840000001</v>
+        <v>10.40315569</v>
       </c>
       <c r="L107">
-        <v>0.43006928799999999</v>
+        <v>0.74144165200000001</v>
       </c>
       <c r="M107">
-        <v>71.964441449999995</v>
+        <v>78.358946209999999</v>
       </c>
       <c r="N107">
-        <v>2.5893821520000002</v>
+        <v>4.0265623120000003</v>
       </c>
       <c r="O107">
-        <v>0.15172870199999999</v>
+        <f>-0.015843146*-1</f>
+        <v>1.5843145999999999E-2</v>
       </c>
       <c r="P107">
-        <v>6639.5457120000001</v>
+        <v>7374.3202719999999</v>
       </c>
       <c r="Q107">
-        <v>1.320611819</v>
+        <v>1.0711118740000001</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108">
-        <v>10.251794820000001</v>
+        <v>12.0878488</v>
       </c>
       <c r="C108">
-        <v>31.723827629999999</v>
+        <v>22.090329000000001</v>
       </c>
       <c r="D108">
-        <v>0.667085174</v>
+        <v>0.645534002</v>
       </c>
       <c r="E108">
-        <v>106.1814727</v>
+        <v>141.94599719999999</v>
       </c>
       <c r="F108">
-        <v>7.6642043720000004</v>
+        <v>17.85488981</v>
       </c>
       <c r="G108">
-        <v>2.4864119999999999E-3</v>
+        <v>9.185281E-3</v>
       </c>
       <c r="H108">
-        <v>5095.204068</v>
+        <v>4952.5640279999998</v>
       </c>
       <c r="I108">
-        <v>4.3674088290000004</v>
+        <v>1.958645553</v>
       </c>
       <c r="J108">
-        <v>10.37958472</v>
+        <v>5.8488652859999997</v>
       </c>
       <c r="K108">
-        <v>10.40315569</v>
+        <v>7.7054480229999998</v>
       </c>
       <c r="L108">
-        <v>0.74144165200000001</v>
+        <v>0.47561383800000001</v>
       </c>
       <c r="M108">
-        <v>78.358946209999999</v>
+        <v>46.366697430000002</v>
       </c>
       <c r="N108">
-        <v>4.0265623120000003</v>
+        <v>1.311052927</v>
       </c>
       <c r="O108">
-        <v>-1.5843145999999999E-2</v>
+        <v>1.4512627E-2</v>
       </c>
       <c r="P108">
-        <v>7374.3202719999999</v>
+        <v>5303.1762390000004</v>
       </c>
       <c r="Q108">
-        <v>1.0711118740000001</v>
+        <v>0.90583127799999996</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109">
-        <v>12.0878488</v>
+        <v>5.8170572380000003</v>
       </c>
       <c r="C109">
-        <v>22.090329000000001</v>
+        <v>14.96912315</v>
       </c>
       <c r="D109">
-        <v>0.645534002</v>
+        <v>0.45722723199999998</v>
       </c>
       <c r="E109">
-        <v>141.94599719999999</v>
+        <v>84.880830250000002</v>
       </c>
       <c r="F109">
-        <v>17.85488981</v>
+        <v>20.63723134</v>
       </c>
       <c r="G109">
-        <v>9.185281E-3</v>
+        <v>1.4546326E-2</v>
       </c>
       <c r="H109">
-        <v>4952.5640279999998</v>
+        <v>4683.4027999999998</v>
       </c>
       <c r="I109">
-        <v>1.958645553</v>
+        <v>2.4272602860000001</v>
       </c>
       <c r="J109">
-        <v>5.8488652859999997</v>
+        <v>4.8291063640000003</v>
       </c>
       <c r="K109">
-        <v>7.7054480229999998</v>
+        <v>12.659326699999999</v>
       </c>
       <c r="L109">
-        <v>0.47561383800000001</v>
+        <v>0.48715946100000002</v>
       </c>
       <c r="M109">
-        <v>46.366697430000002</v>
+        <v>43.760444450000001</v>
       </c>
       <c r="N109">
-        <v>1.311052927</v>
+        <v>1.994072335</v>
       </c>
       <c r="O109">
-        <v>1.4512627E-2</v>
+        <v>1.9130550000000001E-3</v>
       </c>
       <c r="P109">
-        <v>5303.1762390000004</v>
+        <v>6619.9284850000004</v>
       </c>
       <c r="Q109">
-        <v>0.90583127799999996</v>
+        <v>0.94136449700000002</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110">
-        <v>5.8170572380000003</v>
+        <v>16.535104130000001</v>
       </c>
       <c r="C110">
-        <v>14.96912315</v>
+        <v>18.507005119999999</v>
       </c>
       <c r="D110">
-        <v>0.45722723199999998</v>
+        <v>0.64775746899999997</v>
       </c>
       <c r="E110">
-        <v>84.880830250000002</v>
+        <v>99.163980350000003</v>
       </c>
       <c r="F110">
-        <v>20.63723134</v>
+        <v>16.034832130000002</v>
       </c>
       <c r="G110">
-        <v>1.4546326E-2</v>
+        <v>1.1802098E-2</v>
       </c>
       <c r="H110">
-        <v>4683.4027999999998</v>
+        <v>4418.1298239999996</v>
       </c>
       <c r="I110">
-        <v>2.4272602860000001</v>
+        <v>4.5998604460000001</v>
       </c>
       <c r="J110">
-        <v>4.8291063640000003</v>
+        <v>9.2966523510000005</v>
       </c>
       <c r="K110">
-        <v>12.659326699999999</v>
+        <v>5.1928962710000004</v>
       </c>
       <c r="L110">
-        <v>0.48715946100000002</v>
+        <v>0.26864275399999998</v>
       </c>
       <c r="M110">
-        <v>43.760444450000001</v>
+        <v>60.041716989999998</v>
       </c>
       <c r="N110">
-        <v>1.994072335</v>
-      </c>
-      <c r="O110">
-        <v>1.9130550000000001E-3</v>
+        <v>2.9353378409999999</v>
+      </c>
+      <c r="O110" s="2">
+        <f>-0.000306*-1</f>
+        <v>3.0600000000000001E-4</v>
       </c>
       <c r="P110">
-        <v>6619.9284850000004</v>
+        <v>4828.3625620000003</v>
       </c>
       <c r="Q110">
-        <v>0.94136449700000002</v>
+        <v>3.4499939340000001</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B111">
-        <v>16.535104130000001</v>
+        <v>13.12526289</v>
       </c>
       <c r="C111">
-        <v>18.507005119999999</v>
+        <v>14.610059209999999</v>
       </c>
       <c r="D111">
-        <v>0.64775746899999997</v>
+        <v>0.53059719299999997</v>
       </c>
       <c r="E111">
-        <v>99.163980350000003</v>
+        <v>118.1508408</v>
       </c>
       <c r="F111">
-        <v>16.034832130000002</v>
+        <v>18.169042229999999</v>
       </c>
       <c r="G111">
-        <v>1.1802098E-2</v>
+        <v>7.5822950000000002E-3</v>
       </c>
       <c r="H111">
-        <v>4418.1298239999996</v>
+        <v>4978.3419039999999</v>
       </c>
       <c r="I111">
-        <v>4.5998604460000001</v>
+        <v>1.509484026</v>
       </c>
       <c r="J111">
-        <v>9.2966523510000005</v>
+        <v>8.4352706350000002</v>
       </c>
       <c r="K111">
-        <v>5.1928962710000004</v>
+        <v>9.0447372240000004</v>
       </c>
       <c r="L111">
-        <v>0.26864275399999998</v>
+        <v>0.50506380399999995</v>
       </c>
       <c r="M111">
-        <v>60.041716989999998</v>
+        <v>53.352863929999998</v>
       </c>
       <c r="N111">
-        <v>2.9353378409999999</v>
-      </c>
-      <c r="O111" s="2">
-        <v>-3.0600000000000001E-4</v>
+        <v>6.43200723</v>
+      </c>
+      <c r="O111">
+        <f>-0.008269116*-1</f>
+        <v>8.269116E-3</v>
       </c>
       <c r="P111">
-        <v>4828.3625620000003</v>
+        <v>5923.5635130000001</v>
       </c>
       <c r="Q111">
-        <v>3.4499939340000001</v>
+        <v>0.94286685599999998</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B112">
-        <v>13.12526289</v>
+        <v>8.3448063710000007</v>
       </c>
       <c r="C112">
-        <v>14.610059209999999</v>
+        <v>22.194942650000002</v>
       </c>
       <c r="D112">
-        <v>0.53059719299999997</v>
+        <v>0.43601416300000001</v>
       </c>
       <c r="E112">
-        <v>118.1508408</v>
+        <v>95.551047080000004</v>
       </c>
       <c r="F112">
-        <v>18.169042229999999</v>
+        <v>17.092848270000001</v>
       </c>
       <c r="G112">
-        <v>7.5822950000000002E-3</v>
+        <v>1.1701078E-2</v>
       </c>
       <c r="H112">
-        <v>4978.3419039999999</v>
+        <v>4438.7232510000003</v>
       </c>
       <c r="I112">
-        <v>1.509484026</v>
+        <v>1.199652527</v>
       </c>
       <c r="J112">
-        <v>8.4352706350000002</v>
+        <v>7.8365181450000003</v>
       </c>
       <c r="K112">
-        <v>9.0447372240000004</v>
+        <v>7.2365149820000001</v>
       </c>
       <c r="L112">
-        <v>0.50506380399999995</v>
+        <v>0.41841605999999998</v>
       </c>
       <c r="M112">
-        <v>53.352863929999998</v>
+        <v>92.405333049999996</v>
       </c>
       <c r="N112">
-        <v>6.43200723</v>
+        <v>2.684261899</v>
       </c>
       <c r="O112">
-        <v>-8.269116E-3</v>
+        <v>2.7185E-3</v>
       </c>
       <c r="P112">
-        <v>5923.5635130000001</v>
+        <v>6593.4705649999996</v>
       </c>
       <c r="Q112">
-        <v>0.94286685599999998</v>
+        <v>0.678770816</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113">
-        <v>8.3448063710000007</v>
+        <v>7.7715651269999997</v>
       </c>
       <c r="C113">
-        <v>22.194942650000002</v>
+        <v>18.016506509999999</v>
       </c>
       <c r="D113">
-        <v>0.43601416300000001</v>
+        <v>0.54201047499999999</v>
       </c>
       <c r="E113">
-        <v>95.551047080000004</v>
+        <v>107.5824916</v>
       </c>
       <c r="F113">
-        <v>17.092848270000001</v>
-      </c>
-      <c r="G113">
-        <v>1.1701078E-2</v>
+        <v>21.037643289999998</v>
+      </c>
+      <c r="G113" s="2">
+        <v>3.86E-4</v>
       </c>
       <c r="H113">
-        <v>4438.7232510000003</v>
+        <v>5117.6729260000002</v>
       </c>
       <c r="I113">
-        <v>1.199652527</v>
+        <v>1.217768194</v>
       </c>
       <c r="J113">
-        <v>7.8365181450000003</v>
+        <v>5.9895756589999998</v>
       </c>
       <c r="K113">
-        <v>7.2365149820000001</v>
+        <v>8.8495431399999998</v>
       </c>
       <c r="L113">
-        <v>0.41841605999999998</v>
+        <v>0.31506664099999998</v>
       </c>
       <c r="M113">
-        <v>92.405333049999996</v>
+        <v>51.994205790000002</v>
       </c>
       <c r="N113">
-        <v>2.684261899</v>
+        <v>2.9351045170000001</v>
       </c>
       <c r="O113">
-        <v>2.7185E-3</v>
+        <f>-0.004259635*-1</f>
+        <v>4.2596350000000003E-3</v>
       </c>
       <c r="P113">
-        <v>6593.4705649999996</v>
+        <v>5323.9696400000003</v>
       </c>
       <c r="Q113">
-        <v>0.678770816</v>
+        <v>1.171807013</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114">
-        <v>7.7715651269999997</v>
+        <v>7.6394322910000003</v>
       </c>
       <c r="C114">
-        <v>18.016506509999999</v>
+        <v>17.46724927</v>
       </c>
       <c r="D114">
-        <v>0.54201047499999999</v>
+        <v>0.57706354400000004</v>
       </c>
       <c r="E114">
-        <v>107.5824916</v>
+        <v>133.4285371</v>
       </c>
       <c r="F114">
-        <v>21.037643289999998</v>
-      </c>
-      <c r="G114" s="2">
-        <v>3.86E-4</v>
+        <v>33.77811707</v>
+      </c>
+      <c r="G114">
+        <v>6.3724990000000002E-3</v>
       </c>
       <c r="H114">
-        <v>5117.6729260000002</v>
+        <v>4615.8803079999998</v>
       </c>
       <c r="I114">
-        <v>1.217768194</v>
+        <v>1.2508497160000001</v>
       </c>
       <c r="J114">
-        <v>5.9895756589999998</v>
+        <v>6.0079422109999996</v>
       </c>
       <c r="K114">
-        <v>8.8495431399999998</v>
+        <v>8.917579645</v>
       </c>
       <c r="L114">
-        <v>0.31506664099999998</v>
+        <v>0.73438326700000001</v>
       </c>
       <c r="M114">
-        <v>51.994205790000002</v>
+        <v>73.659371669999999</v>
       </c>
       <c r="N114">
-        <v>2.9351045170000001</v>
+        <v>1.467582181</v>
       </c>
       <c r="O114">
-        <v>-4.2596350000000003E-3</v>
+        <v>1.7503629E-2</v>
       </c>
       <c r="P114">
-        <v>5323.9696400000003</v>
+        <v>6192.7844269999996</v>
       </c>
       <c r="Q114">
-        <v>1.171807013</v>
+        <v>0.78710072399999997</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115">
-        <v>7.6394322910000003</v>
+        <v>8.4092807599999997</v>
       </c>
       <c r="C115">
-        <v>17.46724927</v>
+        <v>13.552329609999999</v>
       </c>
       <c r="D115">
-        <v>0.57706354400000004</v>
+        <v>0.40972222200000002</v>
       </c>
       <c r="E115">
-        <v>133.4285371</v>
+        <v>73.078759489999996</v>
       </c>
       <c r="F115">
-        <v>33.77811707</v>
+        <v>20.632882420000001</v>
       </c>
       <c r="G115">
-        <v>6.3724990000000002E-3</v>
+        <v>1.3861346E-2</v>
       </c>
       <c r="H115">
-        <v>4615.8803079999998</v>
+        <v>4421.4642400000002</v>
       </c>
       <c r="I115">
-        <v>1.2508497160000001</v>
+        <v>1.2962883009999999</v>
       </c>
       <c r="J115">
-        <v>6.0079422109999996</v>
+        <v>7.5544512470000003</v>
       </c>
       <c r="K115">
-        <v>8.917579645</v>
+        <v>4.5999355179999997</v>
       </c>
       <c r="L115">
-        <v>0.73438326700000001</v>
+        <v>0.71103413699999996</v>
       </c>
       <c r="M115">
-        <v>73.659371669999999</v>
+        <v>77.857951630000002</v>
       </c>
       <c r="N115">
-        <v>1.467582181</v>
+        <v>4.0883525939999998</v>
       </c>
       <c r="O115">
-        <v>1.7503629E-2</v>
+        <v>0.42191134499999999</v>
       </c>
       <c r="P115">
-        <v>6192.7844269999996</v>
+        <v>4897.6712930000003</v>
       </c>
       <c r="Q115">
-        <v>0.78710072399999997</v>
+        <v>0.58804075</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116">
-        <v>8.4092807599999997</v>
+        <v>11.29694713</v>
       </c>
       <c r="C116">
-        <v>13.552329609999999</v>
+        <v>13.02259497</v>
       </c>
       <c r="D116">
-        <v>0.40972222200000002</v>
+        <v>0.76526637200000003</v>
       </c>
       <c r="E116">
-        <v>73.078759489999996</v>
+        <v>116.0298346</v>
       </c>
       <c r="F116">
-        <v>20.632882420000001</v>
+        <v>13.04106492</v>
       </c>
       <c r="G116">
-        <v>1.3861346E-2</v>
+        <v>0.155693314</v>
       </c>
       <c r="H116">
-        <v>4421.4642400000002</v>
+        <v>4953.8516540000001</v>
       </c>
       <c r="I116">
-        <v>1.2962883009999999</v>
+        <v>4.491824576</v>
       </c>
       <c r="J116">
-        <v>7.5544512470000003</v>
+        <v>10.478495110000001</v>
       </c>
       <c r="K116">
-        <v>4.5999355179999997</v>
+        <v>8.0860382259999994</v>
       </c>
       <c r="L116">
-        <v>0.71103413699999996</v>
+        <v>0.53104542700000001</v>
       </c>
       <c r="M116">
-        <v>77.857951630000002</v>
+        <v>84.940070329999998</v>
       </c>
       <c r="N116">
-        <v>4.0883525939999998</v>
+        <v>1.9712798250000001</v>
       </c>
       <c r="O116">
-        <v>0.42191134499999999</v>
+        <v>0.39663247600000001</v>
       </c>
       <c r="P116">
-        <v>4897.6712930000003</v>
+        <v>6658.729096</v>
       </c>
       <c r="Q116">
-        <v>0.58804075</v>
+        <v>2.4866727810000002</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117">
-        <v>11.29694713</v>
+        <v>10.11131535</v>
       </c>
       <c r="C117">
-        <v>13.02259497</v>
+        <v>10.83905845</v>
       </c>
       <c r="D117">
-        <v>0.76526637200000003</v>
+        <v>0.53426611599999996</v>
       </c>
       <c r="E117">
-        <v>116.0298346</v>
+        <v>98.25996121</v>
       </c>
       <c r="F117">
-        <v>13.04106492</v>
+        <v>17.396053179999999</v>
       </c>
       <c r="G117">
-        <v>0.155693314</v>
+        <v>0.25384889300000002</v>
       </c>
       <c r="H117">
-        <v>4953.8516540000001</v>
+        <v>5210.7974139999997</v>
       </c>
       <c r="I117">
-        <v>4.491824576</v>
+        <v>0.95967185799999999</v>
       </c>
       <c r="J117">
-        <v>10.478495110000001</v>
+        <v>7.235061623</v>
       </c>
       <c r="K117">
-        <v>8.0860382259999994</v>
+        <v>7.2262826640000002</v>
       </c>
       <c r="L117">
-        <v>0.53104542700000001</v>
+        <v>0.54090787100000004</v>
       </c>
       <c r="M117">
-        <v>84.940070329999998</v>
+        <v>54.186351999999999</v>
       </c>
       <c r="N117">
-        <v>1.9712798250000001</v>
+        <v>3.0240676299999998</v>
       </c>
       <c r="O117">
-        <v>0.39663247600000001</v>
+        <v>0.52032835200000005</v>
       </c>
       <c r="P117">
-        <v>6658.729096</v>
+        <v>6857.3591550000001</v>
       </c>
       <c r="Q117">
-        <v>2.4866727810000002</v>
+        <v>1.011520397</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118">
-        <v>10.11131535</v>
+        <v>13.848643300000001</v>
       </c>
       <c r="C118">
-        <v>10.83905845</v>
+        <v>18.604531659999999</v>
       </c>
       <c r="D118">
-        <v>0.53426611599999996</v>
+        <v>0.53715263400000002</v>
       </c>
       <c r="E118">
-        <v>98.25996121</v>
+        <v>121.6414881</v>
       </c>
       <c r="F118">
-        <v>17.396053179999999</v>
+        <v>31.664941760000001</v>
       </c>
       <c r="G118">
-        <v>0.25384889300000002</v>
+        <v>0.68110423099999995</v>
       </c>
       <c r="H118">
-        <v>5210.7974139999997</v>
+        <v>4703.1900850000002</v>
       </c>
       <c r="I118">
-        <v>0.95967185799999999</v>
+        <v>4.7365051420000004</v>
       </c>
       <c r="J118">
-        <v>7.235061623</v>
+        <v>11.26947081</v>
       </c>
       <c r="K118">
-        <v>7.2262826640000002</v>
+        <v>7.3839983230000001</v>
       </c>
       <c r="L118">
-        <v>0.54090787100000004</v>
+        <v>0.156965359</v>
       </c>
       <c r="M118">
-        <v>54.186351999999999</v>
+        <v>61.897297569999999</v>
       </c>
       <c r="N118">
-        <v>3.0240676299999998</v>
+        <v>4.6257364709999997</v>
       </c>
       <c r="O118">
-        <v>0.52032835200000005</v>
+        <v>0.94582346399999995</v>
       </c>
       <c r="P118">
-        <v>6857.3591550000001</v>
+        <v>8006.0448059999999</v>
       </c>
       <c r="Q118">
-        <v>1.011520397</v>
+        <v>2.9747704050000001</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119">
-        <v>13.848643300000001</v>
+        <v>13.77689129</v>
       </c>
       <c r="C119">
-        <v>18.604531659999999</v>
+        <v>7.1503883940000001</v>
       </c>
       <c r="D119">
-        <v>0.53715263400000002</v>
+        <v>0.58953176600000001</v>
       </c>
       <c r="E119">
-        <v>121.6414881</v>
+        <v>128.3641093</v>
       </c>
       <c r="F119">
-        <v>31.664941760000001</v>
+        <v>34.509137920000001</v>
       </c>
       <c r="G119">
-        <v>0.68110423099999995</v>
+        <v>0.45815809299999999</v>
       </c>
       <c r="H119">
-        <v>4703.1900850000002</v>
+        <v>3799.3894799999998</v>
       </c>
       <c r="I119">
-        <v>4.7365051420000004</v>
+        <v>1.776363165</v>
       </c>
       <c r="J119">
-        <v>11.26947081</v>
+        <v>12.975918439999999</v>
       </c>
       <c r="K119">
-        <v>7.3839983230000001</v>
+        <v>9.8207103650000001</v>
       </c>
       <c r="L119">
-        <v>0.156965359</v>
+        <v>0.73258619899999999</v>
       </c>
       <c r="M119">
-        <v>61.897297569999999</v>
+        <v>119.4528858</v>
       </c>
       <c r="N119">
-        <v>4.6257364709999997</v>
+        <v>5.761554769</v>
       </c>
       <c r="O119">
-        <v>0.94582346399999995</v>
+        <v>0.70352247000000001</v>
       </c>
       <c r="P119">
-        <v>8006.0448059999999</v>
+        <v>4371.5266179999999</v>
       </c>
       <c r="Q119">
-        <v>2.9747704050000001</v>
+        <v>3.850634538</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120">
-        <v>13.77689129</v>
+        <v>19.446999170000002</v>
       </c>
       <c r="C120">
-        <v>7.1503883940000001</v>
+        <v>9.8337553950000007</v>
       </c>
       <c r="D120">
-        <v>0.58953176600000001</v>
+        <v>0.66025504599999996</v>
       </c>
       <c r="E120">
-        <v>128.3641093</v>
+        <v>134.45403680000001</v>
       </c>
       <c r="F120">
-        <v>34.509137920000001</v>
+        <v>19.16117006</v>
       </c>
       <c r="G120">
-        <v>0.45815809299999999</v>
+        <v>0.101988517</v>
       </c>
       <c r="H120">
-        <v>3799.3894799999998</v>
+        <v>5115.1403799999998</v>
       </c>
       <c r="I120">
-        <v>1.776363165</v>
+        <v>1.5252047639999999</v>
       </c>
       <c r="J120">
-        <v>12.975918439999999</v>
+        <v>15.104630930000001</v>
       </c>
       <c r="K120">
-        <v>9.8207103650000001</v>
+        <v>9.0803242130000008</v>
       </c>
       <c r="L120">
-        <v>0.73258619899999999</v>
+        <v>0.57452000599999997</v>
       </c>
       <c r="M120">
-        <v>119.4528858</v>
+        <v>98.936508040000007</v>
       </c>
       <c r="N120">
-        <v>5.761554769</v>
+        <v>4.906885999</v>
       </c>
       <c r="O120">
-        <v>0.70352247000000001</v>
+        <v>0.70418247</v>
       </c>
       <c r="P120">
-        <v>4371.5266179999999</v>
+        <v>6992.3448010000002</v>
       </c>
       <c r="Q120">
-        <v>3.850634538</v>
+        <v>2.2316370230000002</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121">
-        <v>19.446999170000002</v>
+        <v>26.57424554</v>
       </c>
       <c r="C121">
-        <v>9.8337553950000007</v>
+        <v>11.81051946</v>
       </c>
       <c r="D121">
-        <v>0.66025504599999996</v>
+        <v>0.56526812699999995</v>
       </c>
       <c r="E121">
-        <v>134.45403680000001</v>
+        <v>108.10387009999999</v>
       </c>
       <c r="F121">
-        <v>19.16117006</v>
+        <v>21.41416036</v>
       </c>
       <c r="G121">
-        <v>0.101988517</v>
+        <v>0.13703189900000001</v>
       </c>
       <c r="H121">
-        <v>5115.1403799999998</v>
+        <v>5208.7994909999998</v>
       </c>
       <c r="I121">
-        <v>1.5252047639999999</v>
+        <v>1.741159981</v>
       </c>
       <c r="J121">
-        <v>15.104630930000001</v>
+        <v>28.826383499999999</v>
       </c>
       <c r="K121">
-        <v>9.0803242130000008</v>
+        <v>6.5048109099999998</v>
       </c>
       <c r="L121">
-        <v>0.57452000599999997</v>
+        <v>0.59311340899999998</v>
       </c>
       <c r="M121">
-        <v>98.936508040000007</v>
+        <v>114.6964158</v>
       </c>
       <c r="N121">
-        <v>4.906885999</v>
+        <v>4.7365115229999999</v>
       </c>
       <c r="O121">
-        <v>0.70418247</v>
+        <v>0.20597917099999999</v>
       </c>
       <c r="P121">
-        <v>6992.3448010000002</v>
+        <v>6212.3757390000001</v>
       </c>
       <c r="Q121">
-        <v>2.2316370230000002</v>
+        <v>0.76075480500000003</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>26.57424554</v>
+        <v>11.11213611</v>
       </c>
       <c r="C122">
-        <v>11.81051946</v>
+        <v>8.0983366720000003</v>
       </c>
       <c r="D122">
-        <v>0.56526812699999995</v>
+        <v>0.56335338300000004</v>
       </c>
       <c r="E122">
-        <v>108.10387009999999</v>
+        <v>71.522594789999999</v>
       </c>
       <c r="F122">
-        <v>21.41416036</v>
+        <v>15.31502676</v>
       </c>
       <c r="G122">
-        <v>0.13703189900000001</v>
+        <v>0.23076085700000001</v>
       </c>
       <c r="H122">
-        <v>5208.7994909999998</v>
+        <v>4593.9284509999998</v>
       </c>
       <c r="I122">
-        <v>1.741159981</v>
+        <v>1.0685229300000001</v>
       </c>
       <c r="J122">
-        <v>28.826383499999999</v>
+        <v>9.5406540270000004</v>
       </c>
       <c r="K122">
-        <v>6.5048109099999998</v>
+        <v>9.5557570100000007</v>
       </c>
       <c r="L122">
-        <v>0.59311340899999998</v>
+        <v>0.32776633799999999</v>
       </c>
       <c r="M122">
-        <v>114.6964158</v>
+        <v>47.838313339999999</v>
       </c>
       <c r="N122">
-        <v>4.7365115229999999</v>
+        <v>1.8968357389999999</v>
       </c>
       <c r="O122">
-        <v>0.20597917099999999</v>
+        <v>0.74635033799999995</v>
       </c>
       <c r="P122">
-        <v>6212.3757390000001</v>
+        <v>7865.5301079999999</v>
       </c>
       <c r="Q122">
-        <v>0.76075480500000003</v>
+        <v>3.3450764670000002</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123">
-        <v>11.11213611</v>
+        <v>24.56498332</v>
       </c>
       <c r="C123">
-        <v>8.0983366720000003</v>
+        <v>18.902411669999999</v>
       </c>
       <c r="D123">
-        <v>0.56335338300000004</v>
+        <v>0.74924382499999997</v>
       </c>
       <c r="E123">
-        <v>71.522594789999999</v>
+        <v>143.50872279999999</v>
       </c>
       <c r="F123">
-        <v>15.31502676</v>
+        <v>17.201771990000001</v>
       </c>
       <c r="G123">
-        <v>0.23076085700000001</v>
+        <v>4.2727947000000002E-2</v>
       </c>
       <c r="H123">
-        <v>4593.9284509999998</v>
+        <v>4890.9405399999996</v>
       </c>
       <c r="I123">
-        <v>1.0685229300000001</v>
+        <v>2.4698128910000001</v>
       </c>
       <c r="J123">
-        <v>9.5406540270000004</v>
+        <v>20.623542480000001</v>
       </c>
       <c r="K123">
-        <v>9.5557570100000007</v>
+        <v>15.461273050000001</v>
       </c>
       <c r="L123">
-        <v>0.32776633799999999</v>
+        <v>0.28911424099999999</v>
       </c>
       <c r="M123">
-        <v>47.838313339999999</v>
+        <v>93.713423079999998</v>
       </c>
       <c r="N123">
-        <v>1.8968357389999999</v>
+        <v>2.1852619180000001</v>
       </c>
       <c r="O123">
-        <v>0.74635033799999995</v>
+        <v>0.12641960999999999</v>
       </c>
       <c r="P123">
-        <v>7865.5301079999999</v>
+        <v>7571.7973519999996</v>
       </c>
       <c r="Q123">
-        <v>3.3450764670000002</v>
+        <v>2.8602398959999999</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124">
-        <v>24.56498332</v>
+        <v>23.928749979999999</v>
       </c>
       <c r="C124">
-        <v>18.902411669999999</v>
+        <v>7.8645208670000004</v>
       </c>
       <c r="D124">
-        <v>0.74924382499999997</v>
+        <v>1.166751791</v>
       </c>
       <c r="E124">
-        <v>143.50872279999999</v>
+        <v>136.9649818</v>
       </c>
       <c r="F124">
-        <v>17.201771990000001</v>
+        <v>16.012586689999999</v>
       </c>
       <c r="G124">
-        <v>4.2727947000000002E-2</v>
+        <v>1.3137019999999999E-2</v>
       </c>
       <c r="H124">
-        <v>4890.9405399999996</v>
+        <v>4407.3463670000001</v>
       </c>
       <c r="I124">
-        <v>2.4698128910000001</v>
+        <v>0.93704969299999996</v>
       </c>
       <c r="J124">
-        <v>20.623542480000001</v>
+        <v>18.43398011</v>
       </c>
       <c r="K124">
-        <v>15.461273050000001</v>
+        <v>12.757809</v>
       </c>
       <c r="L124">
-        <v>0.28911424099999999</v>
+        <v>0.73989682400000001</v>
       </c>
       <c r="M124">
-        <v>93.713423079999998</v>
+        <v>91.406021379999999</v>
       </c>
       <c r="N124">
-        <v>2.1852619180000001</v>
+        <v>3.355859143</v>
       </c>
       <c r="O124">
-        <v>0.12641960999999999</v>
+        <v>5.1235680000000002E-3</v>
       </c>
       <c r="P124">
-        <v>7571.7973519999996</v>
+        <v>6639.6428189999997</v>
       </c>
       <c r="Q124">
-        <v>2.8602398959999999</v>
+        <v>0.53509236299999996</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125">
-        <v>23.928749979999999</v>
+        <v>29.489310270000001</v>
       </c>
       <c r="C125">
-        <v>7.8645208670000004</v>
+        <v>17.207841770000002</v>
       </c>
       <c r="D125">
-        <v>1.166751791</v>
+        <v>0.61224277999999999</v>
       </c>
       <c r="E125">
-        <v>136.9649818</v>
+        <v>136.30219550000001</v>
       </c>
       <c r="F125">
-        <v>16.012586689999999</v>
+        <v>26.034755520000001</v>
       </c>
       <c r="G125">
-        <v>1.3137019999999999E-2</v>
+        <v>8.2900690999999999E-2</v>
       </c>
       <c r="H125">
-        <v>4407.3463670000001</v>
+        <v>4754.3555290000004</v>
       </c>
       <c r="I125">
-        <v>0.93704969299999996</v>
+        <v>1.0889962929999999</v>
       </c>
       <c r="J125">
-        <v>18.43398011</v>
+        <v>25.568741370000001</v>
       </c>
       <c r="K125">
-        <v>12.757809</v>
+        <v>7.6267305240000001</v>
       </c>
       <c r="L125">
-        <v>0.73989682400000001</v>
+        <v>0.56606177899999999</v>
       </c>
       <c r="M125">
-        <v>91.406021379999999</v>
+        <v>97.488991400000003</v>
       </c>
       <c r="N125">
-        <v>3.355859143</v>
+        <v>2.2177542560000001</v>
       </c>
       <c r="O125">
-        <v>5.1235680000000002E-3</v>
+        <v>0.19781428500000001</v>
       </c>
       <c r="P125">
-        <v>6639.6428189999997</v>
+        <v>5461.1444549999997</v>
       </c>
       <c r="Q125">
-        <v>0.53509236299999996</v>
+        <v>1.47559591</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126">
-        <v>29.489310270000001</v>
+        <v>29.008097509999999</v>
       </c>
       <c r="C126">
-        <v>17.207841770000002</v>
+        <v>11.345138929999999</v>
       </c>
       <c r="D126">
-        <v>0.61224277999999999</v>
+        <v>0.56894525299999998</v>
       </c>
       <c r="E126">
-        <v>136.30219550000001</v>
+        <v>113.2149526</v>
       </c>
       <c r="F126">
-        <v>26.034755520000001</v>
+        <v>14.37153007</v>
       </c>
       <c r="G126">
-        <v>8.2900690999999999E-2</v>
+        <v>7.0582846000000005E-2</v>
       </c>
       <c r="H126">
-        <v>4754.3555290000004</v>
+        <v>4772.2961009999999</v>
       </c>
       <c r="I126">
-        <v>1.0889962929999999</v>
+        <v>1.038763976</v>
       </c>
       <c r="J126">
-        <v>25.568741370000001</v>
+        <v>28.213963849999999</v>
       </c>
       <c r="K126">
-        <v>7.6267305240000001</v>
+        <v>12.772016499999999</v>
       </c>
       <c r="L126">
-        <v>0.56606177899999999</v>
+        <v>0.59306461200000005</v>
       </c>
       <c r="M126">
-        <v>97.488991400000003</v>
+        <v>116.0928668</v>
       </c>
       <c r="N126">
-        <v>2.2177542560000001</v>
+        <v>9.9138380959999992</v>
       </c>
       <c r="O126">
-        <v>0.19781428500000001</v>
+        <v>0.11494049100000001</v>
       </c>
       <c r="P126">
-        <v>5461.1444549999997</v>
+        <v>6945.2846410000002</v>
       </c>
       <c r="Q126">
-        <v>1.47559591</v>
+        <v>1.609819509</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127">
-        <v>29.008097509999999</v>
+        <v>2.4452805560000002</v>
       </c>
       <c r="C127">
-        <v>11.345138929999999</v>
+        <v>17.430641619999999</v>
       </c>
       <c r="D127">
-        <v>0.56894525299999998</v>
+        <v>1.5537667340000001</v>
       </c>
       <c r="E127">
-        <v>113.2149526</v>
+        <v>108.8427011</v>
       </c>
       <c r="F127">
-        <v>14.37153007</v>
+        <v>6.9922393410000003</v>
       </c>
       <c r="G127">
-        <v>7.0582846000000005E-2</v>
+        <v>5.3166998E-2</v>
       </c>
       <c r="H127">
-        <v>4772.2961009999999</v>
+        <v>5213.5658219999996</v>
       </c>
       <c r="I127">
-        <v>1.038763976</v>
+        <v>1.3314000859999999</v>
       </c>
       <c r="J127">
-        <v>28.213963849999999</v>
+        <v>20.662450119999999</v>
       </c>
       <c r="K127">
-        <v>12.772016499999999</v>
+        <v>11.06499389</v>
       </c>
       <c r="L127">
-        <v>0.59306461200000005</v>
+        <v>0.270036516</v>
       </c>
       <c r="M127">
-        <v>116.0928668</v>
+        <v>37.356380100000003</v>
       </c>
       <c r="N127">
-        <v>9.9138380959999992</v>
+        <v>0.40376483699999999</v>
       </c>
       <c r="O127">
-        <v>0.11494049100000001</v>
+        <v>0.22202147699999999</v>
       </c>
       <c r="P127">
-        <v>6945.2846410000002</v>
+        <v>7807.1303859999998</v>
       </c>
       <c r="Q127">
-        <v>1.609819509</v>
+        <v>0.809074073</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128">
-        <v>2.4452805560000002</v>
+        <v>33.562606619999997</v>
       </c>
       <c r="C128">
-        <v>17.430641619999999</v>
+        <v>32.543736590000002</v>
       </c>
       <c r="D128">
-        <v>1.5537667340000001</v>
+        <v>0.78884373100000005</v>
       </c>
       <c r="E128">
-        <v>108.8427011</v>
+        <v>126.0076139</v>
       </c>
       <c r="F128">
-        <v>6.9922393410000003</v>
+        <v>23.101828250000001</v>
       </c>
       <c r="G128">
-        <v>5.3166998E-2</v>
+        <v>8.1374011999999996E-2</v>
       </c>
       <c r="H128">
-        <v>5213.5658219999996</v>
+        <v>4563.5062349999998</v>
       </c>
       <c r="I128">
-        <v>1.3314000859999999</v>
+        <v>1.5326976370000001</v>
       </c>
       <c r="J128">
-        <v>20.662450119999999</v>
+        <v>22.956303439999999</v>
       </c>
       <c r="K128">
-        <v>11.06499389</v>
+        <v>9.7978013579999992</v>
       </c>
       <c r="L128">
-        <v>0.270036516</v>
+        <v>0.59969505599999995</v>
       </c>
       <c r="M128">
-        <v>37.356380100000003</v>
+        <v>66.842125749999994</v>
       </c>
       <c r="N128">
-        <v>0.40376483699999999</v>
+        <v>2.1256743889999998</v>
       </c>
       <c r="O128">
-        <v>0.22202147699999999</v>
+        <v>0.11001314199999999</v>
       </c>
       <c r="P128">
-        <v>7807.1303859999998</v>
+        <v>7095.3414409999996</v>
       </c>
       <c r="Q128">
-        <v>0.809074073</v>
+        <v>1.1776540099999999</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129">
-        <v>33.562606619999997</v>
+        <v>27.006382760000001</v>
       </c>
       <c r="C129">
-        <v>32.543736590000002</v>
+        <v>26.50340168</v>
       </c>
       <c r="D129">
-        <v>0.78884373100000005</v>
+        <v>0.66558471500000005</v>
       </c>
       <c r="E129">
-        <v>126.0076139</v>
+        <v>121.4914892</v>
       </c>
       <c r="F129">
-        <v>23.101828250000001</v>
+        <v>18.904364959999999</v>
       </c>
       <c r="G129">
-        <v>8.1374011999999996E-2</v>
+        <v>2.2157712999999999E-2</v>
       </c>
       <c r="H129">
-        <v>4563.5062349999998</v>
+        <v>4125.2949799999997</v>
       </c>
       <c r="I129">
-        <v>1.5326976370000001</v>
+        <v>1.546146153</v>
       </c>
       <c r="J129">
-        <v>22.956303439999999</v>
+        <v>18.274083130000001</v>
       </c>
       <c r="K129">
-        <v>9.7978013579999992</v>
+        <v>5.3497809910000003</v>
       </c>
       <c r="L129">
-        <v>0.59969505599999995</v>
+        <v>0.65027037700000001</v>
       </c>
       <c r="M129">
-        <v>66.842125749999994</v>
+        <v>72.497969670000003</v>
       </c>
       <c r="N129">
-        <v>2.1256743889999998</v>
+        <v>1.9472980609999999</v>
       </c>
       <c r="O129">
-        <v>0.11001314199999999</v>
+        <f>-0.002278147*-1</f>
+        <v>2.2781469999999999E-3</v>
       </c>
       <c r="P129">
-        <v>7095.3414409999996</v>
+        <v>4922.7560860000003</v>
       </c>
       <c r="Q129">
-        <v>1.1776540099999999</v>
+        <v>0.69027079599999996</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130">
-        <v>27.006382760000001</v>
+        <v>29.898907340000001</v>
       </c>
       <c r="C130">
-        <v>26.50340168</v>
+        <v>15.03417456</v>
       </c>
       <c r="D130">
-        <v>0.66558471500000005</v>
+        <v>0.66686415899999996</v>
       </c>
       <c r="E130">
-        <v>121.4914892</v>
+        <v>100.6572407</v>
       </c>
       <c r="F130">
-        <v>18.904364959999999</v>
+        <v>10.04747107</v>
       </c>
       <c r="G130">
-        <v>2.2157712999999999E-2</v>
+        <v>0.14002029599999999</v>
       </c>
       <c r="H130">
-        <v>4125.2949799999997</v>
+        <v>4458.4214339999999</v>
       </c>
       <c r="I130">
-        <v>1.546146153</v>
+        <v>4.5649537320000002</v>
       </c>
       <c r="J130">
-        <v>18.274083130000001</v>
+        <v>22.144117529999999</v>
       </c>
       <c r="K130">
-        <v>5.3497809910000003</v>
+        <v>6.4901752259999999</v>
       </c>
       <c r="L130">
-        <v>0.65027037700000001</v>
+        <v>0.37386461100000001</v>
       </c>
       <c r="M130">
-        <v>72.497969670000003</v>
+        <v>68.211147749999995</v>
       </c>
       <c r="N130">
-        <v>1.9472980609999999</v>
+        <v>2.735459257</v>
       </c>
       <c r="O130">
-        <v>-2.2781469999999999E-3</v>
+        <v>0.113876227</v>
       </c>
       <c r="P130">
-        <v>4922.7560860000003</v>
+        <v>4904.3216700000003</v>
       </c>
       <c r="Q130">
-        <v>0.69027079599999996</v>
+        <v>1.871451314</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B131">
-        <v>29.898907340000001</v>
+        <v>19.457194399999999</v>
       </c>
       <c r="C131">
-        <v>15.03417456</v>
+        <v>17.228287179999999</v>
       </c>
       <c r="D131">
-        <v>0.66686415899999996</v>
+        <v>0.61973582400000005</v>
       </c>
       <c r="E131">
-        <v>100.6572407</v>
+        <v>118.19165820000001</v>
       </c>
       <c r="F131">
-        <v>10.04747107</v>
+        <v>21.569933710000001</v>
       </c>
       <c r="G131">
-        <v>0.14002029599999999</v>
+        <v>0.13541508799999999</v>
       </c>
       <c r="H131">
-        <v>4458.4214339999999</v>
+        <v>4880.5301079999999</v>
       </c>
       <c r="I131">
-        <v>4.5649537320000002</v>
+        <v>2.4570647399999999</v>
       </c>
       <c r="J131">
-        <v>22.144117529999999</v>
+        <v>13.292717680000001</v>
       </c>
       <c r="K131">
-        <v>6.4901752259999999</v>
+        <v>11.79871696</v>
       </c>
       <c r="L131">
-        <v>0.37386461100000001</v>
+        <v>0.351681717</v>
       </c>
       <c r="M131">
-        <v>68.211147749999995</v>
+        <v>75.984421310000002</v>
       </c>
       <c r="N131">
-        <v>2.735459257</v>
+        <v>1.755044874</v>
       </c>
       <c r="O131">
-        <v>0.113876227</v>
+        <v>0.17057462400000001</v>
       </c>
       <c r="P131">
-        <v>4904.3216700000003</v>
+        <v>6710.7866459999996</v>
       </c>
       <c r="Q131">
-        <v>1.871451314</v>
+        <v>7.6678621260000002</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132">
-        <v>19.457194399999999</v>
+        <v>26.586563389999998</v>
       </c>
       <c r="C132">
-        <v>17.228287179999999</v>
+        <v>41.577398070000001</v>
       </c>
       <c r="D132">
-        <v>0.61973582400000005</v>
+        <v>0.64065430700000003</v>
       </c>
       <c r="E132">
-        <v>118.19165820000001</v>
+        <v>108.3994787</v>
       </c>
       <c r="F132">
-        <v>21.569933710000001</v>
+        <v>19.025267790000001</v>
       </c>
       <c r="G132">
-        <v>0.13541508799999999</v>
+        <v>2.887385557</v>
       </c>
       <c r="H132">
-        <v>4880.5301079999999</v>
+        <v>4714.8119200000001</v>
       </c>
       <c r="I132">
-        <v>2.4570647399999999</v>
+        <v>3.9162830949999998</v>
       </c>
       <c r="J132">
-        <v>13.292717680000001</v>
+        <v>18.86441769</v>
       </c>
       <c r="K132">
-        <v>11.79871696</v>
+        <v>16.118464249999999</v>
       </c>
       <c r="L132">
-        <v>0.351681717</v>
+        <v>0.42576274400000003</v>
       </c>
       <c r="M132">
-        <v>75.984421310000002</v>
+        <v>68.991142389999993</v>
       </c>
       <c r="N132">
-        <v>1.755044874</v>
+        <v>7.8786135049999997</v>
       </c>
       <c r="O132">
-        <v>0.17057462400000001</v>
+        <v>3.5801577309999999</v>
       </c>
       <c r="P132">
-        <v>6710.7866459999996</v>
+        <v>6282.3761469999999</v>
       </c>
       <c r="Q132">
-        <v>7.6678621260000002</v>
+        <v>2.5098269599999998</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133">
-        <v>26.586563389999998</v>
+        <v>27.75939636</v>
       </c>
       <c r="C133">
-        <v>41.577398070000001</v>
+        <v>29.951184810000001</v>
       </c>
       <c r="D133">
-        <v>0.64065430700000003</v>
+        <v>0.82905454499999998</v>
       </c>
       <c r="E133">
-        <v>108.3994787</v>
+        <v>108.096283</v>
       </c>
       <c r="F133">
-        <v>19.025267790000001</v>
+        <v>8.424256433</v>
       </c>
       <c r="G133">
-        <v>2.887385557</v>
+        <v>1.0294401280000001</v>
       </c>
       <c r="H133">
-        <v>4714.8119200000001</v>
+        <v>4884.3989689999999</v>
       </c>
       <c r="I133">
-        <v>3.9162830949999998</v>
+        <v>1.5040032270000001</v>
       </c>
       <c r="J133">
-        <v>18.86441769</v>
+        <v>19.36843447</v>
       </c>
       <c r="K133">
-        <v>16.118464249999999</v>
+        <v>9.0297871220000001</v>
       </c>
       <c r="L133">
-        <v>0.42576274400000003</v>
+        <v>0.51723943999999999</v>
       </c>
       <c r="M133">
-        <v>68.991142389999993</v>
+        <v>105.97180090000001</v>
       </c>
       <c r="N133">
-        <v>7.8786135049999997</v>
+        <v>4.1867401439999998</v>
       </c>
       <c r="O133">
-        <v>3.5801577309999999</v>
+        <v>3.702758974</v>
       </c>
       <c r="P133">
-        <v>6282.3761469999999</v>
+        <v>5834.8774880000001</v>
       </c>
       <c r="Q133">
-        <v>2.5098269599999998</v>
+        <v>2.3919851630000002</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134">
-        <v>27.75939636</v>
+        <v>25.438475159999999</v>
       </c>
       <c r="C134">
-        <v>29.951184810000001</v>
+        <v>27.100033629999999</v>
       </c>
       <c r="D134">
-        <v>0.82905454499999998</v>
+        <v>0.73419274800000001</v>
       </c>
       <c r="E134">
-        <v>108.096283</v>
+        <v>183.25813049999999</v>
       </c>
       <c r="F134">
-        <v>8.424256433</v>
+        <v>19.107567830000001</v>
       </c>
       <c r="G134">
-        <v>1.0294401280000001</v>
+        <v>6.0417329180000001</v>
       </c>
       <c r="H134">
-        <v>4884.3989689999999</v>
+        <v>4204.0668459999997</v>
       </c>
       <c r="I134">
-        <v>1.5040032270000001</v>
+        <v>2.5554447470000001</v>
       </c>
       <c r="J134">
-        <v>19.36843447</v>
+        <v>24.68206657</v>
       </c>
       <c r="K134">
-        <v>9.0297871220000001</v>
+        <v>19.482570729999999</v>
       </c>
       <c r="L134">
-        <v>0.51723943999999999</v>
+        <v>0.60370493000000003</v>
       </c>
       <c r="M134">
-        <v>105.97180090000001</v>
+        <v>134.08954209999999</v>
       </c>
       <c r="N134">
-        <v>4.1867401439999998</v>
+        <v>7.1112453840000001</v>
       </c>
       <c r="O134">
-        <v>3.702758974</v>
+        <v>2.3997203530000002</v>
       </c>
       <c r="P134">
-        <v>5834.8774880000001</v>
+        <v>6944.0211369999997</v>
       </c>
       <c r="Q134">
-        <v>2.3919851630000002</v>
+        <v>1.0416563089999999</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135">
-        <v>25.438475159999999</v>
+        <v>23.347542149999999</v>
       </c>
       <c r="C135">
-        <v>27.100033629999999</v>
+        <v>17.307710270000001</v>
       </c>
       <c r="D135">
-        <v>0.73419274800000001</v>
+        <v>0.47251633300000001</v>
       </c>
       <c r="E135">
-        <v>183.25813049999999</v>
+        <v>79.606742199999999</v>
       </c>
       <c r="F135">
-        <v>19.107567830000001</v>
+        <v>6.2084834510000002</v>
       </c>
       <c r="G135">
-        <v>6.0417329180000001</v>
+        <v>0.74197187099999995</v>
       </c>
       <c r="H135">
-        <v>4204.0668459999997</v>
+        <v>3883.32998</v>
       </c>
       <c r="I135">
-        <v>2.5554447470000001</v>
+        <v>0.92154034299999998</v>
       </c>
       <c r="J135">
-        <v>24.68206657</v>
+        <v>27.139887210000001</v>
       </c>
       <c r="K135">
-        <v>19.482570729999999</v>
+        <v>13.006295700000001</v>
       </c>
       <c r="L135">
-        <v>0.60370493000000003</v>
+        <v>0.42190397699999999</v>
       </c>
       <c r="M135">
-        <v>134.08954209999999</v>
+        <v>72.696172619999999</v>
       </c>
       <c r="N135">
-        <v>7.1112453840000001</v>
+        <v>3.5495733719999998</v>
       </c>
       <c r="O135">
-        <v>2.3997203530000002</v>
+        <v>3.3382603849999999</v>
       </c>
       <c r="P135">
-        <v>6944.0211369999997</v>
+        <v>5648.7905389999996</v>
       </c>
       <c r="Q135">
-        <v>1.0416563089999999</v>
+        <v>3.287733469</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136">
-        <v>23.347542149999999</v>
+        <v>30.868045510000002</v>
       </c>
       <c r="C136">
-        <v>17.307710270000001</v>
+        <v>40.539493559999997</v>
       </c>
       <c r="D136">
-        <v>0.47251633300000001</v>
+        <v>0.87039976799999996</v>
       </c>
       <c r="E136">
-        <v>79.606742199999999</v>
+        <v>133.8747501</v>
       </c>
       <c r="F136">
-        <v>6.2084834510000002</v>
+        <v>10.459197919999999</v>
       </c>
       <c r="G136">
-        <v>0.74197187099999995</v>
+        <v>1.5575789449999999</v>
       </c>
       <c r="H136">
-        <v>3883.32998</v>
+        <v>4395.8137640000004</v>
       </c>
       <c r="I136">
-        <v>0.92154034299999998</v>
+        <v>2.2281206299999998</v>
       </c>
       <c r="J136">
-        <v>27.139887210000001</v>
+        <v>22.485107450000001</v>
       </c>
       <c r="K136">
-        <v>13.006295700000001</v>
+        <v>8.1677547609999994</v>
       </c>
       <c r="L136">
-        <v>0.42190397699999999</v>
+        <v>0.48423702000000002</v>
       </c>
       <c r="M136">
-        <v>72.696172619999999</v>
+        <v>102.6007675</v>
       </c>
       <c r="N136">
-        <v>3.5495733719999998</v>
+        <v>11.67929782</v>
       </c>
       <c r="O136">
-        <v>3.3382603849999999</v>
+        <v>1.9743923219999999</v>
       </c>
       <c r="P136">
-        <v>5648.7905389999996</v>
+        <v>4911.7195039999997</v>
       </c>
       <c r="Q136">
-        <v>3.287733469</v>
+        <v>1.977939398</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137">
-        <v>30.868045510000002</v>
+        <v>27.40171363</v>
       </c>
       <c r="C137">
-        <v>40.539493559999997</v>
+        <v>19.47317082</v>
       </c>
       <c r="D137">
-        <v>0.87039976799999996</v>
+        <v>0.53201884099999996</v>
       </c>
       <c r="E137">
-        <v>133.8747501</v>
+        <v>150.94557370000001</v>
       </c>
       <c r="F137">
-        <v>10.459197919999999</v>
+        <v>16.597537890000002</v>
       </c>
       <c r="G137">
-        <v>1.5575789449999999</v>
+        <v>2.8747395789999999</v>
       </c>
       <c r="H137">
-        <v>4395.8137640000004</v>
+        <v>4724.7011739999998</v>
       </c>
       <c r="I137">
-        <v>2.2281206299999998</v>
+        <v>3.4870651810000002</v>
       </c>
       <c r="J137">
-        <v>22.485107450000001</v>
+        <v>32.586191589999999</v>
       </c>
       <c r="K137">
-        <v>8.1677547609999994</v>
+        <v>21.949260750000001</v>
       </c>
       <c r="L137">
-        <v>0.48423702000000002</v>
+        <v>0.683818394</v>
       </c>
       <c r="M137">
-        <v>102.6007675</v>
+        <v>125.52083829999999</v>
       </c>
       <c r="N137">
-        <v>11.67929782</v>
+        <v>2.476496901</v>
       </c>
       <c r="O137">
-        <v>1.9743923219999999</v>
+        <v>3.5263593179999999</v>
       </c>
       <c r="P137">
-        <v>4911.7195039999997</v>
+        <v>6950.7524729999996</v>
       </c>
       <c r="Q137">
-        <v>1.977939398</v>
+        <v>5.5032439120000003</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B138">
-        <v>27.40171363</v>
+        <v>37.388272260000001</v>
       </c>
       <c r="C138">
-        <v>19.47317082</v>
+        <v>19.78341035</v>
       </c>
       <c r="D138">
-        <v>0.53201884099999996</v>
+        <v>0.73620938899999999</v>
       </c>
       <c r="E138">
-        <v>150.94557370000001</v>
+        <v>144.67857269999999</v>
       </c>
       <c r="F138">
-        <v>16.597537890000002</v>
+        <v>20.41470305</v>
       </c>
       <c r="G138">
-        <v>2.8747395789999999</v>
+        <v>0.49979615700000002</v>
       </c>
       <c r="H138">
-        <v>4724.7011739999998</v>
+        <v>4718.8308749999997</v>
       </c>
       <c r="I138">
-        <v>3.4870651810000002</v>
+        <v>3.012059249</v>
       </c>
       <c r="J138">
-        <v>32.586191589999999</v>
+        <v>28.786882840000001</v>
       </c>
       <c r="K138">
-        <v>21.949260750000001</v>
+        <v>33.626837119999998</v>
       </c>
       <c r="L138">
-        <v>0.683818394</v>
+        <v>0.352502706</v>
       </c>
       <c r="M138">
-        <v>125.52083829999999</v>
+        <v>70.739727900000005</v>
       </c>
       <c r="N138">
-        <v>2.476496901</v>
+        <v>1.922164655</v>
       </c>
       <c r="O138">
-        <v>3.5263593179999999</v>
+        <v>0.71279780000000004</v>
       </c>
       <c r="P138">
-        <v>6950.7524729999996</v>
+        <v>9568.3005080000003</v>
       </c>
       <c r="Q138">
-        <v>5.5032439120000003</v>
+        <v>2.8259608140000001</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139">
-        <v>37.388272260000001</v>
+        <v>39.797796239999997</v>
       </c>
       <c r="C139">
-        <v>19.78341035</v>
+        <v>43.947295320000002</v>
       </c>
       <c r="D139">
-        <v>0.73620938899999999</v>
+        <v>0.88155503599999996</v>
       </c>
       <c r="E139">
-        <v>144.67857269999999</v>
+        <v>175.54147850000001</v>
       </c>
       <c r="F139">
-        <v>20.41470305</v>
+        <v>13.269166889999999</v>
       </c>
       <c r="G139">
-        <v>0.49979615700000002</v>
+        <v>0.68130929600000001</v>
       </c>
       <c r="H139">
-        <v>4718.8308749999997</v>
+        <v>5155.2833989999999</v>
       </c>
       <c r="I139">
-        <v>3.012059249</v>
+        <v>5.4394229660000004</v>
       </c>
       <c r="J139">
-        <v>28.786882840000001</v>
+        <v>31.01868898</v>
       </c>
       <c r="K139">
-        <v>33.626837119999998</v>
+        <v>12.22083913</v>
       </c>
       <c r="L139">
-        <v>0.352502706</v>
+        <v>0.69669756000000005</v>
       </c>
       <c r="M139">
-        <v>70.739727900000005</v>
+        <v>121.24517760000001</v>
       </c>
       <c r="N139">
-        <v>1.922164655</v>
+        <v>5.0099516619999998</v>
       </c>
       <c r="O139">
-        <v>0.71279780000000004</v>
+        <v>0.62847296399999997</v>
       </c>
       <c r="P139">
-        <v>9568.3005080000003</v>
+        <v>5526.2911169999998</v>
       </c>
       <c r="Q139">
-        <v>2.8259608140000001</v>
+        <v>3.2454188429999999</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140">
-        <v>39.797796239999997</v>
+        <v>28.373959119999999</v>
       </c>
       <c r="C140">
-        <v>43.947295320000002</v>
+        <v>70.165548290000004</v>
       </c>
       <c r="D140">
-        <v>0.88155503599999996</v>
+        <v>0.69307667500000003</v>
       </c>
       <c r="E140">
-        <v>175.54147850000001</v>
+        <v>132.70185749999999</v>
       </c>
       <c r="F140">
-        <v>13.269166889999999</v>
+        <v>12.00472925</v>
       </c>
       <c r="G140">
-        <v>0.68130929600000001</v>
+        <v>0.69589534799999997</v>
       </c>
       <c r="H140">
-        <v>5155.2833989999999</v>
+        <v>6317.9938940000002</v>
       </c>
       <c r="I140">
-        <v>5.4394229660000004</v>
+        <v>5.2297785670000003</v>
       </c>
       <c r="J140">
-        <v>31.01868898</v>
+        <v>22.037401590000002</v>
       </c>
       <c r="K140">
-        <v>12.22083913</v>
+        <v>19.5455763</v>
       </c>
       <c r="L140">
-        <v>0.69669756000000005</v>
+        <v>0.72783523800000005</v>
       </c>
       <c r="M140">
-        <v>121.24517760000001</v>
+        <v>70.040867289999994</v>
       </c>
       <c r="N140">
-        <v>5.0099516619999998</v>
+        <v>3.0382506899999999</v>
       </c>
       <c r="O140">
-        <v>0.62847296399999997</v>
+        <v>0.51989481400000004</v>
       </c>
       <c r="P140">
-        <v>5526.2911169999998</v>
+        <v>6904.0372900000002</v>
       </c>
       <c r="Q140">
-        <v>3.2454188429999999</v>
+        <v>3.986303892</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141">
-        <v>28.373959119999999</v>
+        <v>34.478575290000002</v>
       </c>
       <c r="C141">
-        <v>70.165548290000004</v>
+        <v>97.928344490000001</v>
       </c>
       <c r="D141">
-        <v>0.69307667500000003</v>
+        <v>0.64019041799999998</v>
       </c>
       <c r="E141">
-        <v>132.70185749999999</v>
+        <v>158.20657729999999</v>
       </c>
       <c r="F141">
-        <v>12.00472925</v>
+        <v>8.9135850679999997</v>
       </c>
       <c r="G141">
-        <v>0.69589534799999997</v>
+        <v>0.62842441599999999</v>
       </c>
       <c r="H141">
-        <v>6317.9938940000002</v>
+        <v>4646.3018769999999</v>
       </c>
       <c r="I141">
-        <v>5.2297785670000003</v>
+        <v>4.7634033269999998</v>
       </c>
       <c r="J141">
-        <v>22.037401590000002</v>
+        <v>26.797018380000001</v>
       </c>
       <c r="K141">
-        <v>19.5455763</v>
+        <v>21.281486749999999</v>
       </c>
       <c r="L141">
-        <v>0.72783523800000005</v>
+        <v>0.59574130800000002</v>
       </c>
       <c r="M141">
-        <v>70.040867289999994</v>
+        <v>135.65188409999999</v>
       </c>
       <c r="N141">
-        <v>3.0382506899999999</v>
+        <v>10.061916589999999</v>
       </c>
       <c r="O141">
-        <v>0.51989481400000004</v>
+        <v>0.65059277800000004</v>
       </c>
       <c r="P141">
-        <v>6904.0372900000002</v>
+        <v>8356.8258509999996</v>
       </c>
       <c r="Q141">
-        <v>3.986303892</v>
+        <v>4.896066781</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142">
-        <v>34.478575290000002</v>
+        <v>22.3326183</v>
       </c>
       <c r="C142">
-        <v>97.928344490000001</v>
+        <v>14.454300099999999</v>
       </c>
       <c r="D142">
-        <v>0.64019041799999998</v>
+        <v>0.54393566800000004</v>
       </c>
       <c r="E142">
-        <v>158.20657729999999</v>
+        <v>131.83377949999999</v>
       </c>
       <c r="F142">
-        <v>8.9135850679999997</v>
+        <v>29.544035319999999</v>
       </c>
       <c r="G142">
-        <v>0.62842441599999999</v>
+        <v>0.14887895300000001</v>
       </c>
       <c r="H142">
-        <v>4646.3018769999999</v>
+        <v>5607.2454539999999</v>
       </c>
       <c r="I142">
-        <v>4.7634033269999998</v>
+        <v>2.7062111450000002</v>
       </c>
       <c r="J142">
-        <v>26.797018380000001</v>
+        <v>29.3633351</v>
       </c>
       <c r="K142">
-        <v>21.281486749999999</v>
+        <v>13.65210619</v>
       </c>
       <c r="L142">
-        <v>0.59574130800000002</v>
+        <v>0.45787159700000002</v>
       </c>
       <c r="M142">
-        <v>135.65188409999999</v>
+        <v>60.270516659999998</v>
       </c>
       <c r="N142">
-        <v>10.061916589999999</v>
+        <v>2.0016687100000001</v>
       </c>
       <c r="O142">
-        <v>0.65059277800000004</v>
+        <v>0.46745075800000002</v>
       </c>
       <c r="P142">
-        <v>8356.8258509999996</v>
+        <v>7042.5985559999999</v>
       </c>
       <c r="Q142">
-        <v>4.896066781</v>
+        <v>4.9463800410000003</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143">
-        <v>22.3326183</v>
+        <v>31.025288880000002</v>
       </c>
       <c r="C143">
-        <v>14.454300099999999</v>
+        <v>49.025609090000003</v>
       </c>
       <c r="D143">
-        <v>0.54393566800000004</v>
+        <v>0.62882061300000003</v>
       </c>
       <c r="E143">
-        <v>131.83377949999999</v>
+        <v>143.29340869999999</v>
       </c>
       <c r="F143">
-        <v>29.544035319999999</v>
+        <v>19.27391154</v>
       </c>
       <c r="G143">
-        <v>0.14887895300000001</v>
+        <v>0.205244226</v>
       </c>
       <c r="H143">
-        <v>5607.2454539999999</v>
+        <v>5202.1179439999996</v>
       </c>
       <c r="I143">
-        <v>2.7062111450000002</v>
+        <v>1.5742145890000001</v>
       </c>
       <c r="J143">
-        <v>29.3633351</v>
+        <v>22.686507469999999</v>
       </c>
       <c r="K143">
-        <v>13.65210619</v>
+        <v>15.822330300000001</v>
       </c>
       <c r="L143">
-        <v>0.45787159700000002</v>
+        <v>0.69264526599999998</v>
       </c>
       <c r="M143">
-        <v>60.270516659999998</v>
+        <v>96.786446269999999</v>
       </c>
       <c r="N143">
-        <v>2.0016687100000001</v>
+        <v>0.74928102600000002</v>
       </c>
       <c r="O143">
-        <v>0.46745075800000002</v>
+        <v>0.40445895500000001</v>
       </c>
       <c r="P143">
-        <v>7042.5985559999999</v>
+        <v>5472.1642529999999</v>
       </c>
       <c r="Q143">
-        <v>4.9463800410000003</v>
+        <v>2.9487012539999999</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B144">
-        <v>31.025288880000002</v>
+        <v>26.132452860000001</v>
       </c>
       <c r="C144">
-        <v>49.025609090000003</v>
+        <v>22.69658153</v>
       </c>
       <c r="D144">
-        <v>0.62882061300000003</v>
+        <v>0.60799317399999997</v>
       </c>
       <c r="E144">
-        <v>143.29340869999999</v>
+        <v>147.00304399999999</v>
       </c>
       <c r="F144">
-        <v>19.27391154</v>
+        <v>49.337436009999998</v>
       </c>
       <c r="G144">
-        <v>0.205244226</v>
+        <v>0.15021453100000001</v>
       </c>
       <c r="H144">
-        <v>5202.1179439999996</v>
+        <v>4993.572784</v>
       </c>
       <c r="I144">
-        <v>1.5742145890000001</v>
+        <v>3.158120158</v>
       </c>
       <c r="J144">
-        <v>22.686507469999999</v>
+        <v>26.01918487</v>
       </c>
       <c r="K144">
-        <v>15.822330300000001</v>
+        <v>4.4279156339999997</v>
       </c>
       <c r="L144">
-        <v>0.69264526599999998</v>
+        <v>0.41926379200000002</v>
       </c>
       <c r="M144">
-        <v>96.786446269999999</v>
+        <v>67.54489074</v>
       </c>
       <c r="N144">
-        <v>0.74928102600000002</v>
+        <v>0.90778290299999997</v>
       </c>
       <c r="O144">
-        <v>0.40445895500000001</v>
+        <v>0.14034332999999999</v>
       </c>
       <c r="P144">
-        <v>5472.1642529999999</v>
+        <v>5215.9950630000003</v>
       </c>
       <c r="Q144">
-        <v>2.9487012539999999</v>
+        <v>2.1632460359999999</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B145">
-        <v>26.132452860000001</v>
+        <v>29.915281289999999</v>
       </c>
       <c r="C145">
-        <v>22.69658153</v>
+        <v>24.128397660000001</v>
       </c>
       <c r="D145">
-        <v>0.60799317399999997</v>
+        <v>0.65426324599999997</v>
       </c>
       <c r="E145">
-        <v>147.00304399999999</v>
+        <v>139.28576179999999</v>
       </c>
       <c r="F145">
-        <v>49.337436009999998</v>
+        <v>16.47444445</v>
       </c>
       <c r="G145">
-        <v>0.15021453100000001</v>
+        <v>0.13514436799999999</v>
       </c>
       <c r="H145">
-        <v>4993.572784</v>
+        <v>6795.0498360000001</v>
       </c>
       <c r="I145">
-        <v>3.158120158</v>
+        <v>2.4171781029999999</v>
       </c>
       <c r="J145">
-        <v>26.01918487</v>
+        <v>29.661016400000001</v>
       </c>
       <c r="K145">
-        <v>4.4279156339999997</v>
+        <v>18.05038257</v>
       </c>
       <c r="L145">
-        <v>0.41926379200000002</v>
+        <v>0.67905325900000002</v>
       </c>
       <c r="M145">
-        <v>67.54489074</v>
+        <v>106.2492307</v>
       </c>
       <c r="N145">
-        <v>0.90778290299999997</v>
+        <v>2.6206721449999999</v>
       </c>
       <c r="O145">
-        <v>0.14034332999999999</v>
+        <v>0.17902362099999999</v>
       </c>
       <c r="P145">
-        <v>5215.9950630000003</v>
+        <v>6053.8168699999997</v>
       </c>
       <c r="Q145">
-        <v>2.1632460359999999</v>
+        <v>3.5333148599999999</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B146">
-        <v>29.915281289999999</v>
+        <v>34.560205889999999</v>
       </c>
       <c r="C146">
-        <v>24.128397660000001</v>
+        <v>20.593180390000001</v>
       </c>
       <c r="D146">
-        <v>0.65426324599999997</v>
+        <v>0.70559825600000003</v>
       </c>
       <c r="E146">
-        <v>139.28576179999999</v>
+        <v>147.56192350000001</v>
       </c>
       <c r="F146">
-        <v>16.47444445</v>
+        <v>13.47497673</v>
       </c>
       <c r="G146">
-        <v>0.13514436799999999</v>
+        <v>0.187000682</v>
       </c>
       <c r="H146">
-        <v>6795.0498360000001</v>
+        <v>5180.2469309999997</v>
       </c>
       <c r="I146">
-        <v>2.4171781029999999</v>
+        <v>2.4582590899999999</v>
       </c>
       <c r="J146">
-        <v>29.661016400000001</v>
+        <v>24.333520419999999</v>
       </c>
       <c r="K146">
-        <v>18.05038257</v>
+        <v>11.033562570000001</v>
       </c>
       <c r="L146">
-        <v>0.67905325900000002</v>
+        <v>0.58482135400000002</v>
       </c>
       <c r="M146">
-        <v>106.2492307</v>
+        <v>71.398545839999997</v>
       </c>
       <c r="N146">
-        <v>2.6206721449999999</v>
+        <v>2.9955646740000001</v>
       </c>
       <c r="O146">
-        <v>0.17902362099999999</v>
+        <v>0.331562686</v>
       </c>
       <c r="P146">
-        <v>6053.8168699999997</v>
+        <v>7576.3037320000003</v>
       </c>
       <c r="Q146">
-        <v>3.5333148599999999</v>
+        <v>1.680250088</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B147">
-        <v>34.560205889999999</v>
+        <v>35.934057979999999</v>
       </c>
       <c r="C147">
-        <v>20.593180390000001</v>
+        <v>30.34638043</v>
       </c>
       <c r="D147">
-        <v>0.70559825600000003</v>
+        <v>0.78303109599999998</v>
       </c>
       <c r="E147">
-        <v>147.56192350000001</v>
+        <v>221.03014150000001</v>
       </c>
       <c r="F147">
-        <v>13.47497673</v>
+        <v>30.304856310000002</v>
       </c>
       <c r="G147">
-        <v>0.187000682</v>
+        <v>0.150069282</v>
       </c>
       <c r="H147">
-        <v>5180.2469309999997</v>
+        <v>5046.6614499999996</v>
       </c>
       <c r="I147">
-        <v>2.4582590899999999</v>
+        <v>2.023205608</v>
       </c>
       <c r="J147">
-        <v>24.333520419999999</v>
+        <v>25.63937494</v>
       </c>
       <c r="K147">
-        <v>11.033562570000001</v>
+        <v>5.1060628560000003</v>
       </c>
       <c r="L147">
-        <v>0.58482135400000002</v>
+        <v>0.25673475499999998</v>
       </c>
       <c r="M147">
-        <v>71.398545839999997</v>
+        <v>86.931569460000006</v>
       </c>
       <c r="N147">
-        <v>2.9955646740000001</v>
+        <v>3.3272073350000002</v>
       </c>
       <c r="O147">
-        <v>0.331562686</v>
+        <v>0.21248297499999999</v>
       </c>
       <c r="P147">
-        <v>7576.3037320000003</v>
+        <v>6831.5057390000002</v>
       </c>
       <c r="Q147">
-        <v>1.680250088</v>
+        <v>2.7288352589999998</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B148">
-        <v>35.934057979999999</v>
+        <v>33.171536340000003</v>
       </c>
       <c r="C148">
-        <v>30.34638043</v>
+        <v>24.671969489999999</v>
       </c>
       <c r="D148">
-        <v>0.78303109599999998</v>
+        <v>0.64033846000000005</v>
       </c>
       <c r="E148">
-        <v>221.03014150000001</v>
+        <v>118.9293064</v>
       </c>
       <c r="F148">
-        <v>30.304856310000002</v>
+        <v>17.698279419999999</v>
       </c>
       <c r="G148">
-        <v>0.150069282</v>
+        <v>0.16609622399999999</v>
       </c>
       <c r="H148">
-        <v>5046.6614499999996</v>
+        <v>5129.0580540000001</v>
       </c>
       <c r="I148">
-        <v>2.023205608</v>
+        <v>1.996290769</v>
       </c>
       <c r="J148">
-        <v>25.63937494</v>
+        <v>24.567054259999999</v>
       </c>
       <c r="K148">
-        <v>5.1060628560000003</v>
+        <v>17.568768930000001</v>
       </c>
       <c r="L148">
-        <v>0.25673475499999998</v>
+        <v>0.45364606200000002</v>
       </c>
       <c r="M148">
-        <v>86.931569460000006</v>
+        <v>58.633549019999997</v>
       </c>
       <c r="N148">
-        <v>3.3272073350000002</v>
+        <v>1.8758897329999999</v>
       </c>
       <c r="O148">
-        <v>0.21248297499999999</v>
+        <v>0.22209832900000001</v>
       </c>
       <c r="P148">
-        <v>6831.5057390000002</v>
+        <v>5775.0331230000002</v>
       </c>
       <c r="Q148">
-        <v>2.7288352589999998</v>
+        <v>1.3847086340000001</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B149">
-        <v>33.171536340000003</v>
+        <v>22.06442019</v>
       </c>
       <c r="C149">
-        <v>24.671969489999999</v>
+        <v>48.922378860000002</v>
       </c>
       <c r="D149">
-        <v>0.64033846000000005</v>
+        <v>0.55198614000000001</v>
       </c>
       <c r="E149">
-        <v>118.9293064</v>
+        <v>147.36467339999999</v>
       </c>
       <c r="F149">
-        <v>17.698279419999999</v>
+        <v>36.461496619999998</v>
       </c>
       <c r="G149">
-        <v>0.16609622399999999</v>
+        <v>0.20175062599999999</v>
       </c>
       <c r="H149">
-        <v>5129.0580540000001</v>
+        <v>5302.8128729999999</v>
       </c>
       <c r="I149">
-        <v>1.996290769</v>
+        <v>2.1183551540000001</v>
       </c>
       <c r="J149">
-        <v>24.567054259999999</v>
+        <v>21.371181530000001</v>
       </c>
       <c r="K149">
-        <v>17.568768930000001</v>
+        <v>15.05350846</v>
       </c>
       <c r="L149">
-        <v>0.45364606200000002</v>
+        <v>0.35416852999999998</v>
       </c>
       <c r="M149">
-        <v>58.633549019999997</v>
+        <v>83.520159359999994</v>
       </c>
       <c r="N149">
-        <v>1.8758897329999999</v>
+        <v>2.5380677679999999</v>
       </c>
       <c r="O149">
-        <v>0.22209832900000001</v>
+        <v>0.15638961800000001</v>
       </c>
       <c r="P149">
-        <v>5775.0331230000002</v>
+        <v>6609.3886419999999</v>
       </c>
       <c r="Q149">
-        <v>1.3847086340000001</v>
+        <v>1.218230631</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B150">
-        <v>22.06442019</v>
+        <v>23.776476259999999</v>
       </c>
       <c r="C150">
-        <v>48.922378860000002</v>
+        <v>68.363302829999995</v>
       </c>
       <c r="D150">
-        <v>0.55198614000000001</v>
+        <v>0.751219462</v>
       </c>
       <c r="E150">
-        <v>147.36467339999999</v>
+        <v>140.01577979999999</v>
       </c>
       <c r="F150">
-        <v>36.461496619999998</v>
+        <v>20.21063161</v>
       </c>
       <c r="G150">
-        <v>0.20175062599999999</v>
+        <v>0.23241880400000001</v>
       </c>
       <c r="H150">
-        <v>5302.8128729999999</v>
+        <v>4101.3116600000003</v>
       </c>
       <c r="I150">
-        <v>2.1183551540000001</v>
+        <v>2.0222623820000001</v>
       </c>
       <c r="J150">
-        <v>21.371181530000001</v>
+        <v>12.47058382</v>
       </c>
       <c r="K150">
-        <v>15.05350846</v>
+        <v>9.1718297</v>
       </c>
       <c r="L150">
-        <v>0.35416852999999998</v>
+        <v>0.66637565600000004</v>
       </c>
       <c r="M150">
-        <v>83.520159359999994</v>
+        <v>53.557153049999997</v>
       </c>
       <c r="N150">
-        <v>2.5380677679999999</v>
+        <v>2.1276715749999999</v>
       </c>
       <c r="O150">
-        <v>0.15638961800000001</v>
+        <v>0.29466409999999998</v>
       </c>
       <c r="P150">
-        <v>6609.3886419999999</v>
+        <v>7083.0677660000001</v>
       </c>
       <c r="Q150">
-        <v>1.218230631</v>
+        <v>0.92134097699999995</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B151">
-        <v>23.776476259999999</v>
+        <v>35.685770470000001</v>
       </c>
       <c r="C151">
-        <v>68.363302829999995</v>
+        <v>21.254515120000001</v>
       </c>
       <c r="D151">
-        <v>0.751219462</v>
+        <v>0.754706816</v>
       </c>
       <c r="E151">
-        <v>140.01577979999999</v>
+        <v>121.2320876</v>
       </c>
       <c r="F151">
-        <v>20.21063161</v>
+        <v>10.082307520000001</v>
       </c>
       <c r="G151">
-        <v>0.23241880400000001</v>
+        <v>0.202305123</v>
       </c>
       <c r="H151">
-        <v>4101.3116600000003</v>
+        <v>4122.6019530000003</v>
       </c>
       <c r="I151">
-        <v>2.0222623820000001</v>
+        <v>2.4769756780000001</v>
       </c>
       <c r="J151">
-        <v>12.47058382</v>
+        <v>16.722321050000001</v>
       </c>
       <c r="K151">
-        <v>9.1718297</v>
+        <v>7.0995234219999999</v>
       </c>
       <c r="L151">
-        <v>0.66637565600000004</v>
+        <v>0.401551202</v>
       </c>
       <c r="M151">
-        <v>53.557153049999997</v>
+        <v>66.408685259999999</v>
       </c>
       <c r="N151">
-        <v>2.1276715749999999</v>
+        <v>2.4882096699999998</v>
       </c>
       <c r="O151">
-        <v>0.29466409999999998</v>
+        <v>0.18801153400000001</v>
       </c>
       <c r="P151">
-        <v>7083.0677660000001</v>
+        <v>6110.0744130000003</v>
       </c>
       <c r="Q151">
-        <v>0.92134097699999995</v>
+        <v>2.5119071079999999</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B152">
-        <v>35.685770470000001</v>
+        <v>49.45409978</v>
       </c>
       <c r="C152">
-        <v>21.254515120000001</v>
+        <v>16.822426750000002</v>
       </c>
       <c r="D152">
-        <v>0.754706816</v>
+        <v>0.73444479200000001</v>
       </c>
       <c r="E152">
-        <v>121.2320876</v>
+        <v>146.0074371</v>
       </c>
       <c r="F152">
-        <v>10.082307520000001</v>
+        <v>17.060107909999999</v>
       </c>
       <c r="G152">
-        <v>0.202305123</v>
+        <v>0.16147455999999999</v>
       </c>
       <c r="H152">
-        <v>4122.6019530000003</v>
+        <v>4628.6081050000003</v>
       </c>
       <c r="I152">
-        <v>2.4769756780000001</v>
+        <v>2.521702796</v>
       </c>
       <c r="J152">
-        <v>16.722321050000001</v>
+        <v>26.315592429999999</v>
       </c>
       <c r="K152">
-        <v>7.0995234219999999</v>
+        <v>19.646914559999999</v>
       </c>
       <c r="L152">
-        <v>0.401551202</v>
+        <v>0.493764853</v>
       </c>
       <c r="M152">
-        <v>66.408685259999999</v>
+        <v>111.9576512</v>
       </c>
       <c r="N152">
-        <v>2.4882096699999998</v>
+        <v>4.5931358810000003</v>
       </c>
       <c r="O152">
-        <v>0.18801153400000001</v>
+        <v>0.13474471900000001</v>
       </c>
       <c r="P152">
-        <v>6110.0744130000003</v>
+        <v>7204.8694610000002</v>
       </c>
       <c r="Q152">
-        <v>2.5119071079999999</v>
+        <v>1.98092325</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B153">
-        <v>49.45409978</v>
+        <v>1.6256239100000001</v>
       </c>
       <c r="C153">
-        <v>16.822426750000002</v>
+        <v>24.597713160000001</v>
       </c>
       <c r="D153">
-        <v>0.73444479200000001</v>
+        <v>0.66655543100000003</v>
       </c>
       <c r="E153">
-        <v>146.0074371</v>
+        <v>119.7010817</v>
       </c>
       <c r="F153">
-        <v>17.060107909999999</v>
+        <v>13.828711090000001</v>
       </c>
       <c r="G153">
-        <v>0.16147455999999999</v>
+        <v>0.31202041899999999</v>
       </c>
       <c r="H153">
-        <v>4628.6081050000003</v>
+        <v>5077.997265</v>
       </c>
       <c r="I153">
-        <v>2.521702796</v>
+        <v>2.200503554</v>
       </c>
       <c r="J153">
-        <v>26.315592429999999</v>
+        <v>1.9657642799999999</v>
       </c>
       <c r="K153">
-        <v>19.646914559999999</v>
+        <v>6.8341110169999997</v>
       </c>
       <c r="L153">
-        <v>0.493764853</v>
+        <v>0.36377051100000002</v>
       </c>
       <c r="M153">
-        <v>111.9576512</v>
+        <v>69.176094860000006</v>
       </c>
       <c r="N153">
-        <v>4.5931358810000003</v>
+        <v>2.2260258409999998</v>
       </c>
       <c r="O153">
-        <v>0.13474471900000001</v>
+        <v>0.48906573800000003</v>
       </c>
       <c r="P153">
-        <v>7204.8694610000002</v>
+        <v>6881.0991299999996</v>
       </c>
       <c r="Q153">
-        <v>1.98092325</v>
+        <v>2.155226549</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B154">
-        <v>1.6256239100000001</v>
+        <v>1.7359101079999999</v>
       </c>
       <c r="C154">
-        <v>24.597713160000001</v>
+        <v>59.165270229999997</v>
       </c>
       <c r="D154">
-        <v>0.66655543100000003</v>
+        <v>0.77371915099999999</v>
       </c>
       <c r="E154">
-        <v>119.7010817</v>
+        <v>142.7852523</v>
       </c>
       <c r="F154">
-        <v>13.828711090000001</v>
+        <v>47.651030910000003</v>
       </c>
       <c r="G154">
-        <v>0.31202041899999999</v>
+        <v>0.38227367499999998</v>
       </c>
       <c r="H154">
-        <v>5077.997265</v>
+        <v>4766.3406059999998</v>
       </c>
       <c r="I154">
-        <v>2.200503554</v>
+        <v>4.5460671169999998</v>
       </c>
       <c r="J154">
-        <v>1.9657642799999999</v>
+        <v>1.643758585</v>
       </c>
       <c r="K154">
-        <v>6.8341110169999997</v>
+        <v>5.5963881630000003</v>
       </c>
       <c r="L154">
-        <v>0.36377051100000002</v>
+        <v>0.72001739600000003</v>
       </c>
       <c r="M154">
-        <v>69.176094860000006</v>
+        <v>119.9478479</v>
       </c>
       <c r="N154">
-        <v>2.2260258409999998</v>
+        <v>2.809278736</v>
       </c>
       <c r="O154">
-        <v>0.48906573800000003</v>
+        <v>0.50705599700000004</v>
       </c>
       <c r="P154">
-        <v>6881.0991299999996</v>
+        <v>5747.9667159999999</v>
       </c>
       <c r="Q154">
-        <v>2.155226549</v>
+        <v>2.9600580440000002</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B155">
-        <v>1.7359101079999999</v>
+        <v>1.8551109809999999</v>
       </c>
       <c r="C155">
-        <v>59.165270229999997</v>
+        <v>36.212517380000001</v>
       </c>
       <c r="D155">
-        <v>0.77371915099999999</v>
+        <v>0.55071134499999996</v>
       </c>
       <c r="E155">
-        <v>142.7852523</v>
+        <v>151.18406469999999</v>
       </c>
       <c r="F155">
-        <v>47.651030910000003</v>
+        <v>51.893067350000003</v>
       </c>
       <c r="G155">
-        <v>0.38227367499999998</v>
+        <v>0.64443100600000003</v>
       </c>
       <c r="H155">
-        <v>4766.3406059999998</v>
+        <v>4201.7112390000002</v>
       </c>
       <c r="I155">
-        <v>4.5460671169999998</v>
+        <v>4.3826322150000001</v>
       </c>
       <c r="J155">
-        <v>1.643758585</v>
+        <v>2.4179062920000001</v>
       </c>
       <c r="K155">
-        <v>5.5963881630000003</v>
+        <v>12.75557087</v>
       </c>
       <c r="L155">
-        <v>0.72001739600000003</v>
+        <v>0.27898774999999998</v>
       </c>
       <c r="M155">
-        <v>119.9478479</v>
+        <v>94.135182610000001</v>
       </c>
       <c r="N155">
-        <v>2.809278736</v>
+        <v>4.0498546720000004</v>
       </c>
       <c r="O155">
-        <v>0.50705599700000004</v>
+        <v>0.71478011299999999</v>
       </c>
       <c r="P155">
-        <v>5747.9667159999999</v>
+        <v>5350.7405339999996</v>
       </c>
       <c r="Q155">
-        <v>2.9600580440000002</v>
+        <v>4.4274691639999997</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B156">
-        <v>1.8551109809999999</v>
+        <v>1.732151438</v>
       </c>
       <c r="C156">
-        <v>36.212517380000001</v>
+        <v>82.338324549999996</v>
       </c>
       <c r="D156">
-        <v>0.55071134499999996</v>
+        <v>0.810750109</v>
       </c>
       <c r="E156">
-        <v>151.18406469999999</v>
+        <v>201.41386180000001</v>
       </c>
       <c r="F156">
-        <v>51.893067350000003</v>
+        <v>64.065402750000004</v>
       </c>
       <c r="G156">
-        <v>0.64443100600000003</v>
+        <v>0.728536407</v>
       </c>
       <c r="H156">
-        <v>4201.7112390000002</v>
+        <v>4909.9228380000004</v>
       </c>
       <c r="I156">
-        <v>4.3826322150000001</v>
+        <v>4.5713545050000004</v>
       </c>
       <c r="J156">
-        <v>2.4179062920000001</v>
+        <v>1.173666278</v>
       </c>
       <c r="K156">
-        <v>12.75557087</v>
+        <v>5.8291688280000002</v>
       </c>
       <c r="L156">
-        <v>0.27898774999999998</v>
+        <v>0.50771843800000005</v>
       </c>
       <c r="M156">
-        <v>94.135182610000001</v>
+        <v>62.344434130000003</v>
       </c>
       <c r="N156">
-        <v>4.0498546720000004</v>
+        <v>2.6732892669999999</v>
       </c>
       <c r="O156">
-        <v>0.71478011299999999</v>
+        <v>0.76214272599999999</v>
       </c>
       <c r="P156">
-        <v>5350.7405339999996</v>
+        <v>5382.4232240000001</v>
       </c>
       <c r="Q156">
-        <v>4.4274691639999997</v>
+        <v>2.4036493339999998</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B157">
-        <v>1.732151438</v>
+        <v>1.6009991779999999</v>
       </c>
       <c r="C157">
-        <v>82.338324549999996</v>
+        <v>12.27469483</v>
       </c>
       <c r="D157">
-        <v>0.810750109</v>
+        <v>0.40759083299999999</v>
       </c>
       <c r="E157">
-        <v>201.41386180000001</v>
+        <v>126.7662983</v>
       </c>
       <c r="F157">
-        <v>64.065402750000004</v>
+        <v>39.721952979999998</v>
       </c>
       <c r="G157">
-        <v>0.728536407</v>
+        <v>0.63272777000000002</v>
       </c>
       <c r="H157">
-        <v>4909.9228380000004</v>
+        <v>4230.1647700000003</v>
       </c>
       <c r="I157">
-        <v>4.5713545050000004</v>
+        <v>3.7981723719999998</v>
       </c>
       <c r="J157">
-        <v>1.173666278</v>
+        <v>1.7534262039999999</v>
       </c>
       <c r="K157">
-        <v>5.8291688280000002</v>
+        <v>4.6281361289999996</v>
       </c>
       <c r="L157">
-        <v>0.50771843800000005</v>
+        <v>0.82340904000000004</v>
       </c>
       <c r="M157">
-        <v>62.344434130000003</v>
+        <v>73.109845620000002</v>
       </c>
       <c r="N157">
-        <v>2.6732892669999999</v>
+        <v>1.1650002639999999</v>
       </c>
       <c r="O157">
-        <v>0.76214272599999999</v>
+        <v>0.71987042400000001</v>
       </c>
       <c r="P157">
-        <v>5382.4232240000001</v>
+        <v>4856.4653559999997</v>
       </c>
       <c r="Q157">
-        <v>2.4036493339999998</v>
+        <v>3.4823838380000001</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B158">
-        <v>1.6009991779999999</v>
+        <v>1.5855480070000001</v>
       </c>
       <c r="C158">
-        <v>12.27469483</v>
+        <v>28.91121515</v>
       </c>
       <c r="D158">
-        <v>0.40759083299999999</v>
+        <v>0.55674368299999999</v>
       </c>
       <c r="E158">
-        <v>126.7662983</v>
+        <v>144.7397497</v>
       </c>
       <c r="F158">
-        <v>39.721952979999998</v>
+        <v>42.139343760000003</v>
       </c>
       <c r="G158">
-        <v>0.63272777000000002</v>
+        <v>0.44130111300000002</v>
       </c>
       <c r="H158">
-        <v>4230.1647700000003</v>
+        <v>5299.8777060000002</v>
       </c>
       <c r="I158">
-        <v>3.7981723719999998</v>
+        <v>2.940041366</v>
       </c>
       <c r="J158">
-        <v>1.7534262039999999</v>
+        <v>0.84004239400000003</v>
       </c>
       <c r="K158">
-        <v>4.6281361289999996</v>
+        <v>6.2257019700000003</v>
       </c>
       <c r="L158">
-        <v>0.82340904000000004</v>
+        <v>0.44039529199999999</v>
       </c>
       <c r="M158">
-        <v>73.109845620000002</v>
+        <v>64.441210359999999</v>
       </c>
       <c r="N158">
-        <v>1.1650002639999999</v>
+        <v>1.1637919720000001</v>
       </c>
       <c r="O158">
-        <v>0.71987042400000001</v>
+        <v>0.35503913599999998</v>
       </c>
       <c r="P158">
-        <v>4856.4653559999997</v>
+        <v>6787.7233999999999</v>
       </c>
       <c r="Q158">
-        <v>3.4823838380000001</v>
+        <v>1.286556341</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B159">
-        <v>1.5855480070000001</v>
+        <v>1.708970058</v>
       </c>
       <c r="C159">
-        <v>28.91121515</v>
+        <v>35.956451850000001</v>
       </c>
       <c r="D159">
-        <v>0.55674368299999999</v>
+        <v>0.539224594</v>
       </c>
       <c r="E159">
-        <v>144.7397497</v>
+        <v>138.1714011</v>
       </c>
       <c r="F159">
-        <v>42.139343760000003</v>
+        <v>109.8743401</v>
       </c>
       <c r="G159">
-        <v>0.44130111300000002</v>
+        <v>0.51179872800000004</v>
       </c>
       <c r="H159">
-        <v>5299.8777060000002</v>
+        <v>5237.6774850000002</v>
       </c>
       <c r="I159">
-        <v>2.940041366</v>
+        <v>3.7363395439999998</v>
       </c>
       <c r="J159">
-        <v>0.84004239400000003</v>
+        <v>0.66929018100000004</v>
       </c>
       <c r="K159">
-        <v>6.2257019700000003</v>
+        <v>7.3203279329999997</v>
       </c>
       <c r="L159">
-        <v>0.44039529199999999</v>
+        <v>0.48938672100000002</v>
       </c>
       <c r="M159">
-        <v>64.441210359999999</v>
+        <v>69.984515209999998</v>
       </c>
       <c r="N159">
-        <v>1.1637919720000001</v>
+        <v>5.4840952769999998</v>
       </c>
       <c r="O159">
-        <v>0.35503913599999998</v>
+        <v>1.012910186</v>
       </c>
       <c r="P159">
-        <v>6787.7233999999999</v>
+        <v>6143.6935590000003</v>
       </c>
       <c r="Q159">
-        <v>1.286556341</v>
+        <v>5.1625226040000003</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B160">
-        <v>1.708970058</v>
+        <v>1.4076257240000001</v>
       </c>
       <c r="C160">
-        <v>35.956451850000001</v>
+        <v>34.031028560000003</v>
       </c>
       <c r="D160">
-        <v>0.539224594</v>
+        <v>0.568311134</v>
       </c>
       <c r="E160">
-        <v>138.1714011</v>
+        <v>150.8832993</v>
       </c>
       <c r="F160">
-        <v>109.8743401</v>
+        <v>57.985075340000002</v>
       </c>
       <c r="G160">
-        <v>0.51179872800000004</v>
+        <v>0.34163000599999999</v>
       </c>
       <c r="H160">
-        <v>5237.6774850000002</v>
+        <v>5416.9888700000001</v>
       </c>
       <c r="I160">
-        <v>3.7363395439999998</v>
+        <v>2.497260909</v>
       </c>
       <c r="J160">
-        <v>0.66929018100000004</v>
+        <v>0.93695498600000005</v>
       </c>
       <c r="K160">
-        <v>7.3203279329999997</v>
+        <v>8.2386387330000002</v>
       </c>
       <c r="L160">
-        <v>0.48938672100000002</v>
+        <v>0.58713009299999996</v>
       </c>
       <c r="M160">
-        <v>69.984515209999998</v>
+        <v>66.083532340000005</v>
       </c>
       <c r="N160">
-        <v>5.4840952769999998</v>
+        <v>2.0114454789999998</v>
       </c>
       <c r="O160">
-        <v>1.012910186</v>
+        <v>0.36556419800000001</v>
       </c>
       <c r="P160">
-        <v>6143.6935590000003</v>
+        <v>7682.5989140000001</v>
       </c>
       <c r="Q160">
-        <v>5.1625226040000003</v>
+        <v>1.4928300489999999</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B161">
-        <v>1.4076257240000001</v>
+        <v>1.5094953449999999</v>
       </c>
       <c r="C161">
-        <v>34.031028560000003</v>
+        <v>99.944585759999995</v>
       </c>
       <c r="D161">
-        <v>0.568311134</v>
+        <v>0.53627341699999997</v>
       </c>
       <c r="E161">
-        <v>150.8832993</v>
+        <v>145.0263266</v>
       </c>
       <c r="F161">
-        <v>57.985075340000002</v>
+        <v>38.730268870000003</v>
       </c>
       <c r="G161">
-        <v>0.34163000599999999</v>
+        <v>0.34580227499999999</v>
       </c>
       <c r="H161">
-        <v>5416.9888700000001</v>
+        <v>5289.153206</v>
       </c>
       <c r="I161">
-        <v>2.497260909</v>
+        <v>3.8823027880000001</v>
       </c>
       <c r="J161">
-        <v>0.93695498600000005</v>
+        <v>3.2073187110000001</v>
       </c>
       <c r="K161">
-        <v>8.2386387330000002</v>
+        <v>18.027398890000001</v>
       </c>
       <c r="L161">
-        <v>0.58713009299999996</v>
+        <v>0.56568826999999999</v>
       </c>
       <c r="M161">
-        <v>66.083532340000005</v>
+        <v>150.45131810000001</v>
       </c>
       <c r="N161">
-        <v>2.0114454789999998</v>
+        <v>4.5308500699999996</v>
       </c>
       <c r="O161">
-        <v>0.36556419800000001</v>
+        <v>0.42908626</v>
       </c>
       <c r="P161">
-        <v>7682.5989140000001</v>
+        <v>6571.1028749999996</v>
       </c>
       <c r="Q161">
-        <v>1.4928300489999999</v>
+        <v>2.6603644929999999</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B162">
-        <v>1.5094953449999999</v>
+        <v>1.798535207</v>
       </c>
       <c r="C162">
-        <v>99.944585759999995</v>
+        <v>46.525121439999999</v>
       </c>
       <c r="D162">
-        <v>0.53627341699999997</v>
+        <v>0.50443133100000004</v>
       </c>
       <c r="E162">
-        <v>145.0263266</v>
+        <v>136.017494</v>
       </c>
       <c r="F162">
-        <v>38.730268870000003</v>
+        <v>43.293711369999997</v>
       </c>
       <c r="G162">
-        <v>0.34580227499999999</v>
+        <v>0.285077568</v>
       </c>
       <c r="H162">
-        <v>5289.153206</v>
+        <v>4818.5975950000002</v>
       </c>
       <c r="I162">
-        <v>3.8823027880000001</v>
+        <v>2.886622252</v>
       </c>
       <c r="J162">
-        <v>3.2073187110000001</v>
+        <v>1.530184738</v>
       </c>
       <c r="K162">
-        <v>18.027398890000001</v>
+        <v>9.568588578</v>
       </c>
       <c r="L162">
-        <v>0.56568826999999999</v>
+        <v>0.44784455200000001</v>
       </c>
       <c r="M162">
-        <v>150.45131810000001</v>
+        <v>80.581377439999997</v>
       </c>
       <c r="N162">
-        <v>4.5308500699999996</v>
+        <v>2.9656026870000001</v>
       </c>
       <c r="O162">
-        <v>0.42908626</v>
+        <v>0.33039647799999999</v>
       </c>
       <c r="P162">
-        <v>6571.1028749999996</v>
+        <v>6587.169261</v>
       </c>
       <c r="Q162">
-        <v>2.6603644929999999</v>
+        <v>1.5149162789999999</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B163">
-        <v>1.798535207</v>
+        <v>1.655834102</v>
       </c>
       <c r="C163">
-        <v>46.525121439999999</v>
+        <v>42.515314170000003</v>
       </c>
       <c r="D163">
-        <v>0.50443133100000004</v>
+        <v>0.56248925599999999</v>
       </c>
       <c r="E163">
-        <v>136.017494</v>
+        <v>127.1328524</v>
       </c>
       <c r="F163">
-        <v>43.293711369999997</v>
+        <v>16.35542822</v>
       </c>
       <c r="G163">
-        <v>0.285077568</v>
+        <v>0.28174554899999998</v>
       </c>
       <c r="H163">
-        <v>4818.5975950000002</v>
+        <v>4126.220953</v>
       </c>
       <c r="I163">
-        <v>2.886622252</v>
+        <v>4.0165680689999999</v>
       </c>
       <c r="J163">
-        <v>1.530184738</v>
+        <v>1.669434946</v>
       </c>
       <c r="K163">
-        <v>9.568588578</v>
+        <v>27.31071931</v>
       </c>
       <c r="L163">
-        <v>0.44784455200000001</v>
+        <v>0.65241626200000002</v>
       </c>
       <c r="M163">
-        <v>80.581377439999997</v>
+        <v>74.346130360000004</v>
       </c>
       <c r="N163">
-        <v>2.9656026870000001</v>
+        <v>2.9652101540000002</v>
       </c>
       <c r="O163">
-        <v>0.33039647799999999</v>
+        <v>0.34642208400000002</v>
       </c>
       <c r="P163">
-        <v>6587.169261</v>
+        <v>5887.8712560000004</v>
       </c>
       <c r="Q163">
-        <v>1.5149162789999999</v>
+        <v>2.0184022229999998</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B164">
-        <v>1.655834102</v>
+        <v>1.811718339</v>
       </c>
       <c r="C164">
-        <v>42.515314170000003</v>
+        <v>23.754980379999999</v>
       </c>
       <c r="D164">
-        <v>0.56248925599999999</v>
+        <v>0.72120428999999997</v>
       </c>
       <c r="E164">
-        <v>127.1328524</v>
+        <v>178.20781629999999</v>
       </c>
       <c r="F164">
-        <v>16.35542822</v>
+        <v>38.093422519999997</v>
       </c>
       <c r="G164">
-        <v>0.28174554899999998</v>
+        <v>0.483131698</v>
       </c>
       <c r="H164">
-        <v>4126.220953</v>
+        <v>5197.8424459999997</v>
       </c>
       <c r="I164">
-        <v>4.0165680689999999</v>
+        <v>3.4073799340000002</v>
       </c>
       <c r="J164">
-        <v>1.669434946</v>
+        <v>1.7982216950000001</v>
       </c>
       <c r="K164">
-        <v>27.31071931</v>
+        <v>32.909465869999998</v>
       </c>
       <c r="L164">
-        <v>0.65241626200000002</v>
+        <v>0.44833117099999997</v>
       </c>
       <c r="M164">
-        <v>74.346130360000004</v>
+        <v>125.84929219999999</v>
       </c>
       <c r="N164">
-        <v>2.9652101540000002</v>
+        <v>1.5946206709999999</v>
       </c>
       <c r="O164">
-        <v>0.34642208400000002</v>
+        <v>0.31560944200000002</v>
       </c>
       <c r="P164">
-        <v>5887.8712560000004</v>
+        <v>5483.7716449999998</v>
       </c>
       <c r="Q164">
-        <v>2.0184022229999998</v>
+        <v>3.4549329210000002</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B165">
-        <v>1.811718339</v>
+        <v>1.6073069339999999</v>
       </c>
       <c r="C165">
-        <v>23.754980379999999</v>
+        <v>28.480812830000001</v>
       </c>
       <c r="D165">
-        <v>0.72120428999999997</v>
+        <v>0.49818072200000002</v>
       </c>
       <c r="E165">
-        <v>178.20781629999999</v>
+        <v>133.79390079999999</v>
       </c>
       <c r="F165">
-        <v>38.093422519999997</v>
+        <v>32.090230990000002</v>
       </c>
       <c r="G165">
-        <v>0.483131698</v>
+        <v>0.21290103899999999</v>
       </c>
       <c r="H165">
-        <v>5197.8424459999997</v>
+        <v>3927.8858799999998</v>
       </c>
       <c r="I165">
-        <v>3.4073799340000002</v>
+        <v>3.3364225730000001</v>
       </c>
       <c r="J165">
-        <v>1.7982216950000001</v>
+        <v>1.754323742</v>
       </c>
       <c r="K165">
-        <v>32.909465869999998</v>
+        <v>7.8171094520000004</v>
       </c>
       <c r="L165">
-        <v>0.44833117099999997</v>
+        <v>0.25439474200000001</v>
       </c>
       <c r="M165">
-        <v>125.84929219999999</v>
+        <v>76.988325130000007</v>
       </c>
       <c r="N165">
-        <v>1.5946206709999999</v>
+        <v>1.3741146799999999</v>
       </c>
       <c r="O165">
-        <v>0.31560944200000002</v>
+        <v>7.6386317999999995E-2</v>
       </c>
       <c r="P165">
-        <v>5483.7716449999998</v>
+        <v>6473.4353460000002</v>
       </c>
       <c r="Q165">
-        <v>3.4549329210000002</v>
+        <v>0.96448414599999999</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B166">
-        <v>1.6073069339999999</v>
+        <v>2.3945454239999999</v>
       </c>
       <c r="C166">
-        <v>28.480812830000001</v>
+        <v>46.69447976</v>
       </c>
       <c r="D166">
-        <v>0.49818072200000002</v>
+        <v>0.59501903899999997</v>
       </c>
       <c r="E166">
-        <v>133.79390079999999</v>
+        <v>194.8037405</v>
       </c>
       <c r="F166">
-        <v>32.090230990000002</v>
+        <v>34.259281440000002</v>
       </c>
       <c r="G166">
-        <v>0.21290103899999999</v>
+        <v>0.86631312599999999</v>
       </c>
       <c r="H166">
-        <v>3927.8858799999998</v>
+        <v>4760.7974759999997</v>
       </c>
       <c r="I166">
-        <v>3.3364225730000001</v>
+        <v>3.2850780240000002</v>
       </c>
       <c r="J166">
-        <v>1.754323742</v>
+        <v>1.4575980660000001</v>
       </c>
       <c r="K166">
-        <v>7.8171094520000004</v>
+        <v>7.4854343080000003</v>
       </c>
       <c r="L166">
-        <v>0.25439474200000001</v>
+        <v>0.56523781399999995</v>
       </c>
       <c r="M166">
-        <v>76.988325130000007</v>
+        <v>52.341543799999997</v>
       </c>
       <c r="N166">
-        <v>1.3741146799999999</v>
+        <v>0.98842718799999996</v>
       </c>
       <c r="O166">
-        <v>7.6386317999999995E-2</v>
+        <v>0.52704508100000003</v>
       </c>
       <c r="P166">
-        <v>6473.4353460000002</v>
+        <v>6494.741239</v>
       </c>
       <c r="Q166">
-        <v>0.96448414599999999</v>
+        <v>14.61415646</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B167">
-        <v>2.3945454239999999</v>
+        <v>1.3691616559999999</v>
       </c>
       <c r="C167">
-        <v>46.69447976</v>
+        <v>44.112490610000002</v>
       </c>
       <c r="D167">
-        <v>0.59501903899999997</v>
+        <v>0.69218464099999999</v>
       </c>
       <c r="E167">
-        <v>194.8037405</v>
+        <v>141.3429553</v>
       </c>
       <c r="F167">
-        <v>34.259281440000002</v>
+        <v>43.362741370000002</v>
       </c>
       <c r="G167">
-        <v>0.86631312599999999</v>
+        <v>0.19285835100000001</v>
       </c>
       <c r="H167">
-        <v>4760.7974759999997</v>
+        <v>4363.4518790000002</v>
       </c>
       <c r="I167">
-        <v>3.2850780240000002</v>
+        <v>2.1270125129999999</v>
       </c>
       <c r="J167">
-        <v>1.4575980660000001</v>
+        <v>1.64524888</v>
       </c>
       <c r="K167">
-        <v>7.4854343080000003</v>
+        <v>5.9200057939999997</v>
       </c>
       <c r="L167">
-        <v>0.56523781399999995</v>
+        <v>0.29662859899999999</v>
       </c>
       <c r="M167">
-        <v>52.341543799999997</v>
+        <v>60.663235530000001</v>
       </c>
       <c r="N167">
-        <v>0.98842718799999996</v>
+        <v>2.5968916989999999</v>
       </c>
       <c r="O167">
-        <v>0.52704508100000003</v>
+        <v>0.34255554599999999</v>
       </c>
       <c r="P167">
-        <v>6494.741239</v>
+        <v>5946.6179570000004</v>
       </c>
       <c r="Q167">
-        <v>14.61415646</v>
+        <v>1.99067226</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B168">
-        <v>1.3691616559999999</v>
+        <v>1.354148718</v>
       </c>
       <c r="C168">
-        <v>44.112490610000002</v>
+        <v>18.915348850000001</v>
       </c>
       <c r="D168">
-        <v>0.69218464099999999</v>
+        <v>0.59167414100000004</v>
       </c>
       <c r="E168">
-        <v>141.3429553</v>
+        <v>132.5036514</v>
       </c>
       <c r="F168">
-        <v>43.362741370000002</v>
+        <v>34.405462810000003</v>
       </c>
       <c r="G168">
-        <v>0.19285835100000001</v>
+        <v>0.297607864</v>
       </c>
       <c r="H168">
-        <v>4363.4518790000002</v>
+        <v>5218.7543329999999</v>
       </c>
       <c r="I168">
-        <v>2.1270125129999999</v>
+        <v>3.4115293449999999</v>
       </c>
       <c r="J168">
-        <v>1.64524888</v>
+        <v>0.94998320199999997</v>
       </c>
       <c r="K168">
-        <v>5.9200057939999997</v>
+        <v>6.0535904470000004</v>
       </c>
       <c r="L168">
-        <v>0.29662859899999999</v>
+        <v>0.54834386800000001</v>
       </c>
       <c r="M168">
-        <v>60.663235530000001</v>
+        <v>39.781087739999997</v>
       </c>
       <c r="N168">
-        <v>2.5968916989999999</v>
+        <v>1.2832467380000001</v>
       </c>
       <c r="O168">
-        <v>0.34255554599999999</v>
+        <v>0.33457525700000001</v>
       </c>
       <c r="P168">
-        <v>5946.6179570000004</v>
+        <v>6345.9212809999999</v>
       </c>
       <c r="Q168">
-        <v>1.99067226</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B169">
-        <v>1.354148718</v>
-      </c>
-      <c r="C169">
-        <v>18.915348850000001</v>
-      </c>
-      <c r="D169">
-        <v>0.59167414100000004</v>
-      </c>
-      <c r="E169">
-        <v>132.5036514</v>
-      </c>
-      <c r="F169">
-        <v>34.405462810000003</v>
-      </c>
-      <c r="G169">
-        <v>0.297607864</v>
-      </c>
-      <c r="H169">
-        <v>5218.7543329999999</v>
-      </c>
-      <c r="I169">
-        <v>3.4115293449999999</v>
-      </c>
-      <c r="J169">
-        <v>0.94998320199999997</v>
-      </c>
-      <c r="K169">
-        <v>6.0535904470000004</v>
-      </c>
-      <c r="L169">
-        <v>0.54834386800000001</v>
-      </c>
-      <c r="M169">
-        <v>39.781087739999997</v>
-      </c>
-      <c r="N169">
-        <v>1.2832467380000001</v>
-      </c>
-      <c r="O169">
-        <v>0.33457525700000001</v>
-      </c>
-      <c r="P169">
-        <v>6345.9212809999999</v>
-      </c>
-      <c r="Q169">
         <v>0.93219943999999999</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:Q168">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>